--- a/excel/K卡牌效果表.xlsx
+++ b/excel/K卡牌效果表.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CardDoc\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="20475" windowHeight="3105"/>
   </bookViews>
@@ -20,11 +25,14 @@
   <connection id="1" name="CardEffectTemplate_table" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="E:\陈夏凌\doc\xianCardData\define\template\excel\CardEffectTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="2" name="CardEffectTemplate_table1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\CardDoc\define\template\excel\CardEffectTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>效果ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,14 +119,22 @@
   </si>
   <si>
     <t>回合结束保留护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果触发条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +147,14 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -157,14 +181,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -173,31 +194,52 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema1">
+  <Schema ID="Schema2">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="LocalDatas">
         <xsd:complexType>
@@ -214,6 +256,8 @@
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nDataExcept" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nDataDiff" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nId" form="unqualified"/>
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="iEffectTrigType" form="unqualified"/>
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nTarget" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nType" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="iEffectValue" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nLinkId" form="unqualified"/>
@@ -231,33 +275,39 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="1" Name="LocalDatas_映射" RootElement="LocalDatas" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
+  <Map ID="2" Name="LocalDatas_映射" RootElement="LocalDatas" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="2" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:G9" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="B1:G9"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:I9" tableType="xml" totalsRowShown="0" connectionId="2">
+  <autoFilter ref="B1:I9"/>
+  <tableColumns count="8">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
-      <xmlColumnPr mapId="1" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nDataExcept" xmlDataType="string"/>
+      <xmlColumnPr mapId="2" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nDataExcept" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="nDataDiff" name="nDataDiff">
-      <xmlColumnPr mapId="1" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nDataDiff" xmlDataType="string"/>
+      <xmlColumnPr mapId="2" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nDataDiff" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="nId" name="效果ID" dataDxfId="2">
-      <xmlColumnPr mapId="1" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nId" xmlDataType="string"/>
+    <tableColumn id="3" uniqueName="nId" name="效果ID" dataDxfId="4">
+      <xmlColumnPr mapId="2" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nId" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="nType" name="效果类型" dataDxfId="1">
-      <xmlColumnPr mapId="1" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nType" xmlDataType="string"/>
+    <tableColumn id="7" uniqueName="iEffectTrigType" name="效果触发条件" dataDxfId="1">
+      <xmlColumnPr mapId="2" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectTrigType" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="iEffectValue" name="效果值" dataDxfId="0">
-      <xmlColumnPr mapId="1" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectValue" xmlDataType="string"/>
+    <tableColumn id="8" uniqueName="nTarget" name="效果目标" dataDxfId="0">
+      <xmlColumnPr mapId="2" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nTarget" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="4" uniqueName="nType" name="效果类型" dataDxfId="3">
+      <xmlColumnPr mapId="2" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nType" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="5" uniqueName="iEffectValue" name="效果值" dataDxfId="2">
+      <xmlColumnPr mapId="2" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectValue" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="nLinkId" name="关联效果ID">
-      <xmlColumnPr mapId="1" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nLinkId" xmlDataType="string"/>
+      <xmlColumnPr mapId="2" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nLinkId" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -307,7 +357,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,9 +389,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -373,6 +424,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -548,25 +600,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -576,154 +630,208 @@
       <c r="C1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
         <v>1</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
         <v>6</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>2</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
         <v>9</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>3</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3">
         <v>2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="H4" s="3">
         <v>5</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>4</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="4">
+      <c r="H5" s="3">
         <v>8</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="5">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6">
         <v>5</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
         <v>3</v>
       </c>
-      <c r="F6" s="5">
+      <c r="H6" s="6">
         <v>1</v>
       </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="5">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6">
         <v>6</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
         <v>3</v>
       </c>
-      <c r="F7" s="5">
+      <c r="H7" s="6">
         <v>2</v>
       </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="5">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6">
         <v>7</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
         <v>3</v>
       </c>
-      <c r="F8" s="5">
+      <c r="H8" s="6">
         <v>3</v>
       </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="5">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6">
         <v>8</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
         <v>3</v>
       </c>
-      <c r="F9" s="5">
+      <c r="H9" s="6">
         <v>4</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="I9" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -735,19 +843,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -758,7 +866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>1</v>
       </c>
@@ -769,7 +877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>2</v>
       </c>
@@ -780,7 +888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>3</v>
       </c>
@@ -798,12 +906,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/K卡牌效果表.xlsx
+++ b/excel/K卡牌效果表.xlsx
@@ -181,7 +181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -203,19 +203,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -294,16 +297,16 @@
     <tableColumn id="3" uniqueName="nId" name="效果ID" dataDxfId="4">
       <xmlColumnPr mapId="2" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nId" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="iEffectTrigType" name="效果触发条件" dataDxfId="1">
+    <tableColumn id="7" uniqueName="iEffectTrigType" name="效果触发条件" dataDxfId="3">
       <xmlColumnPr mapId="2" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectTrigType" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="nTarget" name="效果目标" dataDxfId="0">
+    <tableColumn id="8" uniqueName="nTarget" name="效果目标" dataDxfId="2">
       <xmlColumnPr mapId="2" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nTarget" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="nType" name="效果类型" dataDxfId="3">
+    <tableColumn id="4" uniqueName="nType" name="效果类型" dataDxfId="1">
       <xmlColumnPr mapId="2" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nType" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="iEffectValue" name="效果值" dataDxfId="2">
+    <tableColumn id="5" uniqueName="iEffectValue" name="效果值" dataDxfId="0">
       <xmlColumnPr mapId="2" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectValue" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="nLinkId" name="关联效果ID">
@@ -604,7 +607,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -753,8 +756,8 @@
       <c r="E6" s="3">
         <v>0</v>
       </c>
-      <c r="F6" s="3">
-        <v>0</v>
+      <c r="F6" s="7">
+        <v>4</v>
       </c>
       <c r="G6" s="6">
         <v>3</v>
@@ -776,8 +779,8 @@
       <c r="E7" s="3">
         <v>0</v>
       </c>
-      <c r="F7" s="3">
-        <v>0</v>
+      <c r="F7" s="7">
+        <v>4</v>
       </c>
       <c r="G7" s="6">
         <v>3</v>
@@ -799,8 +802,8 @@
       <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
+      <c r="F8" s="7">
+        <v>4</v>
       </c>
       <c r="G8" s="6">
         <v>3</v>
@@ -822,8 +825,8 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
+      <c r="F9" s="7">
+        <v>4</v>
       </c>
       <c r="G9" s="6">
         <v>3</v>

--- a/excel/K卡牌效果表.xlsx
+++ b/excel/K卡牌效果表.xlsx
@@ -16,7 +16,7 @@
     <sheet name="备注" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>效果ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,50 @@
   </si>
   <si>
     <t>效果目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽3张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽4张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合内无法再抽牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得8点防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得11点防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽1张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成未被格挡的伤害，得1费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -285,8 +329,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:I9" tableType="xml" totalsRowShown="0" connectionId="2">
-  <autoFilter ref="B1:I9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:I18" tableType="xml" totalsRowShown="0" connectionId="2">
+  <autoFilter ref="B1:I18"/>
   <tableColumns count="8">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
       <xmlColumnPr mapId="2" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nDataExcept" xmlDataType="string"/>
@@ -604,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -822,8 +866,8 @@
       <c r="D9" s="6">
         <v>8</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
+      <c r="E9" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="F9" s="7">
         <v>4</v>
@@ -835,6 +879,204 @@
         <v>4</v>
       </c>
       <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>4</v>
+      </c>
+      <c r="G10" s="2">
+        <v>4</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2">
+        <v>12</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>4</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>4</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>11</v>
+      </c>
+      <c r="I14">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>4</v>
+      </c>
+      <c r="G15" s="2">
+        <v>4</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2">
+        <v>15</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>9</v>
+      </c>
+      <c r="I17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="2">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2">
+        <v>25</v>
+      </c>
+      <c r="F18" s="7">
+        <v>4</v>
+      </c>
+      <c r="G18" s="2">
+        <v>5</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel/K卡牌效果表.xlsx
+++ b/excel/K卡牌效果表.xlsx
@@ -28,11 +28,14 @@
   <connection id="2" name="CardEffectTemplate_table1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\CardDoc\define\template\excel\CardEffectTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="3" name="CardEffectTemplate_table2" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\CardDoc\define\template\excel\CardEffectTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>效果ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自己获得护甲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,18 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>防御5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关联效果ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,14 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抽3张牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽4张牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,19 +137,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得8点防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得11点防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽1张牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成未被格挡的伤害，得1费</t>
+    <t>效果次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -225,7 +212,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -247,14 +234,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -286,7 +273,7 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema2">
+  <Schema ID="Schema3">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="LocalDatas">
         <xsd:complexType>
@@ -307,6 +294,7 @@
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nTarget" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nType" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="iEffectValue" form="unqualified"/>
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="iEffectCount" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nLinkId" form="unqualified"/>
                             </xsd:sequence>
                           </xsd:complexType>
@@ -322,39 +310,42 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="2" Name="LocalDatas_映射" RootElement="LocalDatas" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="2" DataBindingLoadMode="1"/>
+  <Map ID="3" Name="LocalDatas_映射" RootElement="LocalDatas" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="3" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:I18" tableType="xml" totalsRowShown="0" connectionId="2">
-  <autoFilter ref="B1:I18"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:J26" tableType="xml" totalsRowShown="0" connectionId="3">
+  <autoFilter ref="B1:J26"/>
+  <tableColumns count="9">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
-      <xmlColumnPr mapId="2" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nDataExcept" xmlDataType="string"/>
+      <xmlColumnPr mapId="3" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nDataExcept" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="nDataDiff" name="nDataDiff">
-      <xmlColumnPr mapId="2" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nDataDiff" xmlDataType="string"/>
+      <xmlColumnPr mapId="3" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nDataDiff" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="nId" name="效果ID" dataDxfId="4">
-      <xmlColumnPr mapId="2" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nId" xmlDataType="string"/>
+    <tableColumn id="3" uniqueName="nId" name="效果ID" dataDxfId="5">
+      <xmlColumnPr mapId="3" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nId" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="iEffectTrigType" name="效果触发条件" dataDxfId="3">
-      <xmlColumnPr mapId="2" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectTrigType" xmlDataType="string"/>
+    <tableColumn id="7" uniqueName="iEffectTrigType" name="效果触发条件" dataDxfId="4">
+      <xmlColumnPr mapId="3" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectTrigType" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="nTarget" name="效果目标" dataDxfId="2">
-      <xmlColumnPr mapId="2" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nTarget" xmlDataType="string"/>
+    <tableColumn id="8" uniqueName="nTarget" name="效果目标" dataDxfId="3">
+      <xmlColumnPr mapId="3" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nTarget" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="nType" name="效果类型" dataDxfId="1">
-      <xmlColumnPr mapId="2" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nType" xmlDataType="string"/>
+    <tableColumn id="4" uniqueName="nType" name="效果类型" dataDxfId="2">
+      <xmlColumnPr mapId="3" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nType" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="iEffectValue" name="效果值" dataDxfId="0">
-      <xmlColumnPr mapId="2" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectValue" xmlDataType="string"/>
+    <tableColumn id="5" uniqueName="iEffectValue" name="效果值" dataDxfId="1">
+      <xmlColumnPr mapId="3" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectValue" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="9" uniqueName="iEffectCount" name="效果次数" dataDxfId="0">
+      <xmlColumnPr mapId="3" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectCount" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="nLinkId" name="关联效果ID">
-      <xmlColumnPr mapId="2" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nLinkId" xmlDataType="string"/>
+      <xmlColumnPr mapId="3" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nLinkId" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -648,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -664,27 +655,28 @@
     <col min="6" max="6" width="10" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.25" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="11.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>1</v>
@@ -692,13 +684,17 @@
       <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>11</v>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" t="str">
+        <f>"攻击"&amp;H2</f>
+        <v>攻击6</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -717,11 +713,13 @@
       <c r="H2" s="3">
         <v>6</v>
       </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>7</v>
+      <c r="I2" s="3"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" t="str">
+        <f>"攻击"&amp;H3</f>
+        <v>攻击9</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -740,11 +738,13 @@
       <c r="H3" s="3">
         <v>9</v>
       </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>10</v>
+      <c r="I3" s="3"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" t="str">
+        <f>"防御"&amp;H4</f>
+        <v>防御5</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -763,11 +763,13 @@
       <c r="H4" s="3">
         <v>5</v>
       </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>12</v>
+      <c r="I4" s="3"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" t="str">
+        <f>"防御"&amp;H5</f>
+        <v>防御8</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -786,11 +788,12 @@
       <c r="H5" s="3">
         <v>8</v>
       </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I5" s="3"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -800,7 +803,7 @@
       <c r="E6" s="3">
         <v>0</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="3">
         <v>4</v>
       </c>
       <c r="G6" s="6">
@@ -809,11 +812,12 @@
       <c r="H6" s="6">
         <v>1</v>
       </c>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I6" s="6"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -823,7 +827,7 @@
       <c r="E7" s="3">
         <v>0</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="3">
         <v>4</v>
       </c>
       <c r="G7" s="6">
@@ -832,11 +836,12 @@
       <c r="H7" s="6">
         <v>2</v>
       </c>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I7" s="6"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -846,7 +851,7 @@
       <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="3">
         <v>4</v>
       </c>
       <c r="G8" s="6">
@@ -855,11 +860,12 @@
       <c r="H8" s="6">
         <v>3</v>
       </c>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I8" s="6"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -867,9 +873,9 @@
         <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="7">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3">
         <v>4</v>
       </c>
       <c r="G9" s="6">
@@ -878,145 +884,174 @@
       <c r="H9" s="6">
         <v>4</v>
       </c>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="I9" s="6"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A10" t="str">
+        <f>"抽"&amp;H10&amp;"张牌"</f>
+        <v>抽3张牌</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="3">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
+        <v>4</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A11" t="str">
+        <f>"抽"&amp;H11&amp;"张牌"</f>
+        <v>抽4张牌</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="3">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4</v>
+      </c>
+      <c r="G11" s="3">
+        <v>4</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="3">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
+        <v>3</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="2">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7">
-        <v>4</v>
-      </c>
-      <c r="G10" s="2">
-        <v>4</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10">
+      <c r="I12" s="6"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" t="str">
+        <f>"防御"&amp;H13</f>
+        <v>防御8</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="3">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>8</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" t="str">
+        <f>"防御"&amp;H14</f>
+        <v>防御11</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="3">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="2">
-        <v>10</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7">
-        <v>4</v>
-      </c>
-      <c r="G11" s="2">
-        <v>4</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="2">
-        <v>11</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>4</v>
-      </c>
-      <c r="G12" s="2">
-        <v>3</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="2">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>4</v>
-      </c>
-      <c r="G13" s="2">
-        <v>2</v>
-      </c>
-      <c r="H13" s="2">
-        <v>8</v>
-      </c>
-      <c r="I13">
+      <c r="I14" s="3"/>
+      <c r="J14" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="2">
-        <v>13</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
-        <v>4</v>
-      </c>
-      <c r="G14" s="2">
-        <v>2</v>
-      </c>
-      <c r="H14" s="2">
-        <v>11</v>
-      </c>
-      <c r="I14">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" t="str">
+        <f>"抽"&amp;H15&amp;"张牌"</f>
+        <v>抽1张牌</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="2">
-        <v>14</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>4</v>
-      </c>
-      <c r="G15" s="2">
-        <v>4</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="2">
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" t="str">
+        <f>"攻击"&amp;H16</f>
+        <v>攻击6</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="3">
         <v>15</v>
       </c>
       <c r="E16" s="4">
@@ -1031,15 +1066,19 @@
       <c r="H16" s="3">
         <v>6</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3"/>
+      <c r="J16" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" t="str">
+        <f>"攻击"&amp;H17</f>
+        <v>攻击9</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="3">
         <v>16</v>
       </c>
       <c r="E17" s="3">
@@ -1054,29 +1093,247 @@
       <c r="H17" s="3">
         <v>9</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3"/>
+      <c r="J17" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" t="str">
+        <f>"造成未被格挡的伤害，得"&amp;H18&amp;"费"</f>
+        <v>造成未被格挡的伤害，得1费</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="3">
         <v>17</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <v>25</v>
       </c>
-      <c r="F18" s="7">
-        <v>4</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="F18" s="3">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
         <v>5</v>
       </c>
-      <c r="H18" s="2">
-        <v>1</v>
-      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" t="str">
+        <f>"攻击"&amp;H19</f>
+        <v>攻击8</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="3">
+        <v>18</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>8</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" t="str">
+        <f>"攻击"&amp;H20</f>
+        <v>攻击12</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="3">
+        <v>19</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3">
+        <v>12</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" t="str">
+        <f>"获得"&amp;I21&amp;"把幻剑"</f>
+        <v>获得1把幻剑</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="3">
+        <v>20</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
+        <v>6</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" t="str">
+        <f>"获得"&amp;I22&amp;"把幻剑"</f>
+        <v>获得2把幻剑</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="3">
+        <v>21</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3">
+        <v>6</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" t="str">
+        <f>"攻击"&amp;H23&amp;"*"&amp;I23</f>
+        <v>攻击7*2</v>
+      </c>
+      <c r="D23" s="3">
+        <v>22</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>7</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" t="str">
+        <f>"攻击"&amp;H24&amp;"*"&amp;I24</f>
+        <v>攻击9*2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>23</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>9</v>
+      </c>
+      <c r="I24" s="2">
+        <v>2</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" t="str">
+        <f>"获得"&amp;I25&amp;"把幻剑"</f>
+        <v>获得2把幻剑</v>
+      </c>
+      <c r="D25" s="3">
+        <v>24</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>4</v>
+      </c>
+      <c r="G25" s="3">
+        <v>3</v>
+      </c>
+      <c r="H25" s="3">
+        <v>6</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" t="str">
+        <f>"获得"&amp;I26&amp;"把幻剑"</f>
+        <v>获得3把幻剑</v>
+      </c>
+      <c r="D26" s="3">
+        <v>25</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>4</v>
+      </c>
+      <c r="G26" s="3">
+        <v>3</v>
+      </c>
+      <c r="H26" s="3">
+        <v>6</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1127,10 +1384,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
@@ -1138,10 +1395,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/excel/K卡牌效果表.xlsx
+++ b/excel/K卡牌效果表.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CardDoc\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="20475" windowHeight="3105"/>
   </bookViews>
@@ -16,26 +11,32 @@
     <sheet name="备注" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="CardEffectTemplate_table" type="4" refreshedVersion="0" background="1">
+  <connection id="1" name="CardEffectTemplate" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\XianCard\CardDoc\define\template\CardEffectTemplate.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="2" name="CardEffectTemplate_table" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="E:\陈夏凌\doc\xianCardData\define\template\excel\CardEffectTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="2" name="CardEffectTemplate_table1" type="4" refreshedVersion="0" background="1">
+  <connection id="3" name="CardEffectTemplate_table1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\CardDoc\define\template\excel\CardEffectTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="3" name="CardEffectTemplate_table2" type="4" refreshedVersion="0" background="1">
+  <connection id="4" name="CardEffectTemplate_table2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\CardDoc\define\template\excel\CardEffectTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="5" name="CardEffectTemplate_table3" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\XianCard\CardDoc\define\template\excel\CardEffectTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>效果ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,6 +159,10 @@
   </si>
   <si>
     <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用效果倍数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -238,7 +243,10 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -295,6 +303,7 @@
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nType" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="iEffectValue" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="iEffectCount" form="unqualified"/>
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="iCostEffectTimes" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nLinkId" form="unqualified"/>
                             </xsd:sequence>
                           </xsd:complexType>
@@ -310,42 +319,45 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="3" Name="LocalDatas_映射" RootElement="LocalDatas" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="3" DataBindingLoadMode="1"/>
+  <Map ID="5" Name="LocalDatas_映射" RootElement="LocalDatas" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="5" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:J26" tableType="xml" totalsRowShown="0" connectionId="3">
-  <autoFilter ref="B1:J26"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:K29" tableType="xml" totalsRowShown="0" connectionId="5">
+  <autoFilter ref="B1:K29"/>
+  <tableColumns count="10">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
-      <xmlColumnPr mapId="3" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nDataExcept" xmlDataType="string"/>
+      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nDataExcept" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="nDataDiff" name="nDataDiff">
-      <xmlColumnPr mapId="3" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nDataDiff" xmlDataType="string"/>
+      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nDataDiff" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="nId" name="效果ID" dataDxfId="5">
-      <xmlColumnPr mapId="3" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nId" xmlDataType="string"/>
+    <tableColumn id="3" uniqueName="nId" name="效果ID" dataDxfId="6">
+      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nId" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="iEffectTrigType" name="效果触发条件" dataDxfId="4">
-      <xmlColumnPr mapId="3" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectTrigType" xmlDataType="string"/>
+    <tableColumn id="7" uniqueName="iEffectTrigType" name="效果触发条件" dataDxfId="5">
+      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectTrigType" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="nTarget" name="效果目标" dataDxfId="3">
-      <xmlColumnPr mapId="3" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nTarget" xmlDataType="string"/>
+    <tableColumn id="8" uniqueName="nTarget" name="效果目标" dataDxfId="4">
+      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nTarget" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="nType" name="效果类型" dataDxfId="2">
-      <xmlColumnPr mapId="3" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nType" xmlDataType="string"/>
+    <tableColumn id="4" uniqueName="nType" name="效果类型" dataDxfId="3">
+      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nType" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="iEffectValue" name="效果值" dataDxfId="1">
-      <xmlColumnPr mapId="3" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectValue" xmlDataType="string"/>
+    <tableColumn id="5" uniqueName="iEffectValue" name="效果值" dataDxfId="2">
+      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectValue" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="iEffectCount" name="效果次数" dataDxfId="0">
-      <xmlColumnPr mapId="3" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectCount" xmlDataType="string"/>
+    <tableColumn id="9" uniqueName="iEffectCount" name="效果次数" dataDxfId="1">
+      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectCount" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="10" uniqueName="iCostEffectTimes" name="费用效果倍数" dataDxfId="0">
+      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iCostEffectTimes" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="nLinkId" name="关联效果ID">
-      <xmlColumnPr mapId="3" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nLinkId" xmlDataType="string"/>
+      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nLinkId" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -353,7 +365,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -395,7 +407,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -430,7 +442,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -639,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -655,11 +667,12 @@
     <col min="6" max="6" width="10" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.25" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.25" customWidth="1"/>
+    <col min="9" max="9" width="13" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -687,11 +700,14 @@
       <c r="I1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="str">
         <f>"攻击"&amp;H2</f>
         <v>攻击6</v>
@@ -713,10 +729,13 @@
       <c r="H2" s="3">
         <v>6</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="str">
         <f>"攻击"&amp;H3</f>
         <v>攻击9</v>
@@ -738,10 +757,13 @@
       <c r="H3" s="3">
         <v>9</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="str">
         <f>"防御"&amp;H4</f>
         <v>防御5</v>
@@ -763,10 +785,13 @@
       <c r="H4" s="3">
         <v>5</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="str">
         <f>"防御"&amp;H5</f>
         <v>防御8</v>
@@ -788,10 +813,13 @@
       <c r="H5" s="3">
         <v>8</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -812,10 +840,13 @@
       <c r="H6" s="6">
         <v>1</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -836,10 +867,13 @@
       <c r="H7" s="6">
         <v>2</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -860,10 +894,13 @@
       <c r="H8" s="6">
         <v>3</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -884,10 +921,13 @@
       <c r="H9" s="6">
         <v>4</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="str">
         <f>"抽"&amp;H10&amp;"张牌"</f>
         <v>抽3张牌</v>
@@ -909,12 +949,15 @@
       <c r="H10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="1">
+      <c r="I10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="str">
         <f>"抽"&amp;H11&amp;"张牌"</f>
         <v>抽4张牌</v>
@@ -936,12 +979,15 @@
       <c r="H11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="1">
+      <c r="I11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -962,10 +1008,13 @@
       <c r="H12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="str">
         <f>"防御"&amp;H13</f>
         <v>防御8</v>
@@ -987,12 +1036,15 @@
       <c r="H13" s="3">
         <v>8</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="1">
+      <c r="I13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="str">
         <f>"防御"&amp;H14</f>
         <v>防御11</v>
@@ -1014,12 +1066,15 @@
       <c r="H14" s="3">
         <v>11</v>
       </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="1">
+      <c r="I14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="str">
         <f>"抽"&amp;H15&amp;"张牌"</f>
         <v>抽1张牌</v>
@@ -1041,10 +1096,13 @@
       <c r="H15" s="3">
         <v>1</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="str">
         <f>"攻击"&amp;H16</f>
         <v>攻击6</v>
@@ -1066,12 +1124,15 @@
       <c r="H16" s="3">
         <v>6</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="1">
+      <c r="I16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" t="str">
         <f>"攻击"&amp;H17</f>
         <v>攻击9</v>
@@ -1093,12 +1154,15 @@
       <c r="H17" s="3">
         <v>9</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="1">
+      <c r="I17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" t="str">
         <f>"造成未被格挡的伤害，得"&amp;H18&amp;"费"</f>
         <v>造成未被格挡的伤害，得1费</v>
@@ -1120,10 +1184,13 @@
       <c r="H18" s="3">
         <v>1</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="I18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" t="str">
         <f>"攻击"&amp;H19</f>
         <v>攻击8</v>
@@ -1145,12 +1212,15 @@
       <c r="H19" s="3">
         <v>8</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="1">
+      <c r="I19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" t="str">
         <f>"攻击"&amp;H20</f>
         <v>攻击12</v>
@@ -1172,12 +1242,15 @@
       <c r="H20" s="3">
         <v>12</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="1">
+      <c r="I20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" t="str">
         <f>"获得"&amp;I21&amp;"把幻剑"</f>
         <v>获得1把幻剑</v>
@@ -1202,9 +1275,10 @@
       <c r="I21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J21" s="3"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" t="str">
         <f>"获得"&amp;I22&amp;"把幻剑"</f>
         <v>获得2把幻剑</v>
@@ -1229,13 +1303,16 @@
       <c r="I22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J22" s="3"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" t="str">
         <f>"攻击"&amp;H23&amp;"*"&amp;I23</f>
         <v>攻击7*2</v>
       </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
       <c r="D23" s="3">
         <v>22</v>
       </c>
@@ -1248,21 +1325,24 @@
       <c r="G23" s="3">
         <v>1</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="3">
         <v>7</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="3">
         <v>2</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="3"/>
+      <c r="K23" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" t="str">
         <f>"攻击"&amp;H24&amp;"*"&amp;I24</f>
         <v>攻击9*2</v>
       </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
       <c r="D24" s="3">
         <v>23</v>
       </c>
@@ -1275,21 +1355,24 @@
       <c r="G24" s="3">
         <v>1</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="3">
         <v>9</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="3">
         <v>2</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="3"/>
+      <c r="K24" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" t="str">
         <f>"获得"&amp;I25&amp;"把幻剑"</f>
         <v>获得2把幻剑</v>
       </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
       <c r="D25" s="3">
         <v>24</v>
       </c>
@@ -1308,13 +1391,16 @@
       <c r="I25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="J25" s="3"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" t="str">
         <f>"获得"&amp;I26&amp;"把幻剑"</f>
         <v>获得3把幻剑</v>
       </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
       <c r="D26" s="3">
         <v>25</v>
       </c>
@@ -1333,13 +1419,109 @@
       <c r="I26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J26" s="1"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A27" t="str">
+        <f>"攻击"&amp;H27&amp;" * ("&amp;J27&amp;"X + "&amp;I27&amp;")"</f>
+        <v>攻击8 * (1X + 0)</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="3">
+        <v>26</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3">
+        <v>8</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A28" t="str">
+        <f>"攻击"&amp;H28&amp;" * ("&amp;J28&amp;"X + "&amp;I28&amp;")"</f>
+        <v>攻击11 * (1X + 0)</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="3">
+        <v>27</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3">
+        <v>11</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A29" t="str">
+        <f>"获得("&amp;J28&amp;"X + "&amp;I28&amp;")把幻剑"</f>
+        <v>获得(1X + 0)把幻剑</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="3">
+        <v>28</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>4</v>
+      </c>
+      <c r="G29" s="3">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3">
+        <v>6</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/excel/K卡牌效果表.xlsx
+++ b/excel/K卡牌效果表.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CardDoc\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="30" windowWidth="20475" windowHeight="3105"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="备注" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -32,11 +37,14 @@
   <connection id="5" name="CardEffectTemplate_table3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\XianCard\CardDoc\define\template\excel\CardEffectTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="6" name="CardEffectTemplate_table4" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\CardDoc\define\template\excel\CardEffectTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>效果ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +171,18 @@
   </si>
   <si>
     <t>费用效果倍数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把幻剑替换成多重护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级效果值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -243,7 +263,11 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -281,7 +305,7 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema3">
+  <Schema ID="Schema2">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="LocalDatas">
         <xsd:complexType>
@@ -304,6 +328,7 @@
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="iEffectValue" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="iEffectCount" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="iCostEffectTimes" form="unqualified"/>
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="iEffectValue_2" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nLinkId" form="unqualified"/>
                             </xsd:sequence>
                           </xsd:complexType>
@@ -319,45 +344,48 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="5" Name="LocalDatas_映射" RootElement="LocalDatas" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="5" DataBindingLoadMode="1"/>
+  <Map ID="6" Name="LocalDatas_映射" RootElement="LocalDatas" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="6" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:K29" tableType="xml" totalsRowShown="0" connectionId="5">
-  <autoFilter ref="B1:K29"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:L30" tableType="xml" totalsRowShown="0" connectionId="6">
+  <autoFilter ref="B1:L30"/>
+  <tableColumns count="11">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
-      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nDataExcept" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nDataExcept" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="nDataDiff" name="nDataDiff">
-      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nDataDiff" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nDataDiff" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="nId" name="效果ID" dataDxfId="6">
-      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nId" xmlDataType="string"/>
+    <tableColumn id="3" uniqueName="nId" name="效果ID" dataDxfId="7">
+      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nId" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="iEffectTrigType" name="效果触发条件" dataDxfId="5">
-      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectTrigType" xmlDataType="string"/>
+    <tableColumn id="7" uniqueName="iEffectTrigType" name="效果触发条件" dataDxfId="6">
+      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectTrigType" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="nTarget" name="效果目标" dataDxfId="4">
-      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nTarget" xmlDataType="string"/>
+    <tableColumn id="8" uniqueName="nTarget" name="效果目标" dataDxfId="5">
+      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nTarget" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="nType" name="效果类型" dataDxfId="3">
-      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nType" xmlDataType="string"/>
+    <tableColumn id="4" uniqueName="nType" name="效果类型" dataDxfId="4">
+      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nType" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="iEffectValue" name="效果值" dataDxfId="2">
-      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectValue" xmlDataType="string"/>
+    <tableColumn id="5" uniqueName="iEffectValue" name="效果值" dataDxfId="3">
+      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectValue" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="iEffectCount" name="效果次数" dataDxfId="1">
-      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectCount" xmlDataType="string"/>
+    <tableColumn id="9" uniqueName="iEffectCount" name="效果次数" dataDxfId="2">
+      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectCount" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="iCostEffectTimes" name="费用效果倍数" dataDxfId="0">
-      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iCostEffectTimes" xmlDataType="string"/>
+    <tableColumn id="10" uniqueName="iCostEffectTimes" name="费用效果倍数" dataDxfId="1">
+      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iCostEffectTimes" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="11" uniqueName="iEffectValue_2" name="2级效果值" dataDxfId="0">
+      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectValue_2" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="nLinkId" name="关联效果ID">
-      <xmlColumnPr mapId="5" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nLinkId" xmlDataType="string"/>
+      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nLinkId" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -365,7 +393,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -407,7 +435,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -442,7 +470,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -651,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -668,11 +696,11 @@
     <col min="7" max="7" width="10.25" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.75" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.25" customWidth="1"/>
+    <col min="10" max="11" width="15.875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -703,11 +731,14 @@
       <c r="J1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="str">
         <f>"攻击"&amp;H2</f>
         <v>攻击6</v>
@@ -733,9 +764,10 @@
         <v>26</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K2" s="3"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="str">
         <f>"攻击"&amp;H3</f>
         <v>攻击9</v>
@@ -761,9 +793,10 @@
         <v>26</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K3" s="3"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" t="str">
         <f>"防御"&amp;H4</f>
         <v>防御5</v>
@@ -789,9 +822,10 @@
         <v>26</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K4" s="3"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" t="str">
         <f>"防御"&amp;H5</f>
         <v>防御8</v>
@@ -817,9 +851,10 @@
         <v>26</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K5" s="3"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -844,9 +879,10 @@
         <v>26</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K6" s="6"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -871,9 +907,10 @@
         <v>26</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K7" s="6"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -898,9 +935,10 @@
         <v>26</v>
       </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K8" s="6"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -925,9 +963,10 @@
         <v>26</v>
       </c>
       <c r="J9" s="6"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K9" s="6"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="str">
         <f>"抽"&amp;H10&amp;"张牌"</f>
         <v>抽3张牌</v>
@@ -953,11 +992,12 @@
         <v>26</v>
       </c>
       <c r="J10" s="6"/>
-      <c r="K10" s="1">
+      <c r="K10" s="6"/>
+      <c r="L10" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" t="str">
         <f>"抽"&amp;H11&amp;"张牌"</f>
         <v>抽4张牌</v>
@@ -983,11 +1023,12 @@
         <v>26</v>
       </c>
       <c r="J11" s="6"/>
-      <c r="K11" s="1">
+      <c r="K11" s="6"/>
+      <c r="L11" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1012,9 +1053,10 @@
         <v>26</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K12" s="6"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" t="str">
         <f>"防御"&amp;H13</f>
         <v>防御8</v>
@@ -1040,11 +1082,12 @@
         <v>26</v>
       </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="1">
+      <c r="K13" s="3"/>
+      <c r="L13" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" t="str">
         <f>"防御"&amp;H14</f>
         <v>防御11</v>
@@ -1070,11 +1113,12 @@
         <v>26</v>
       </c>
       <c r="J14" s="3"/>
-      <c r="K14" s="1">
+      <c r="K14" s="3"/>
+      <c r="L14" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" t="str">
         <f>"抽"&amp;H15&amp;"张牌"</f>
         <v>抽1张牌</v>
@@ -1100,9 +1144,10 @@
         <v>26</v>
       </c>
       <c r="J15" s="3"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K15" s="3"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" t="str">
         <f>"攻击"&amp;H16</f>
         <v>攻击6</v>
@@ -1128,11 +1173,12 @@
         <v>26</v>
       </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="1">
+      <c r="K16" s="3"/>
+      <c r="L16" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" t="str">
         <f>"攻击"&amp;H17</f>
         <v>攻击9</v>
@@ -1158,11 +1204,12 @@
         <v>26</v>
       </c>
       <c r="J17" s="3"/>
-      <c r="K17" s="1">
+      <c r="K17" s="3"/>
+      <c r="L17" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" t="str">
         <f>"造成未被格挡的伤害，得"&amp;H18&amp;"费"</f>
         <v>造成未被格挡的伤害，得1费</v>
@@ -1188,9 +1235,10 @@
         <v>26</v>
       </c>
       <c r="J18" s="3"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K18" s="3"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" t="str">
         <f>"攻击"&amp;H19</f>
         <v>攻击8</v>
@@ -1216,11 +1264,12 @@
         <v>26</v>
       </c>
       <c r="J19" s="3"/>
-      <c r="K19" s="1">
+      <c r="K19" s="3"/>
+      <c r="L19" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" t="str">
         <f>"攻击"&amp;H20</f>
         <v>攻击12</v>
@@ -1246,11 +1295,12 @@
         <v>26</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="1">
+      <c r="K20" s="3"/>
+      <c r="L20" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" t="str">
         <f>"获得"&amp;I21&amp;"把幻剑"</f>
         <v>获得1把幻剑</v>
@@ -1276,9 +1326,10 @@
         <v>26</v>
       </c>
       <c r="J21" s="3"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K21" s="3"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" t="str">
         <f>"获得"&amp;I22&amp;"把幻剑"</f>
         <v>获得2把幻剑</v>
@@ -1304,9 +1355,10 @@
         <v>27</v>
       </c>
       <c r="J22" s="3"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K22" s="3"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" t="str">
         <f>"攻击"&amp;H23&amp;"*"&amp;I23</f>
         <v>攻击7*2</v>
@@ -1332,11 +1384,12 @@
         <v>2</v>
       </c>
       <c r="J23" s="3"/>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="3"/>
+      <c r="L23" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" t="str">
         <f>"攻击"&amp;H24&amp;"*"&amp;I24</f>
         <v>攻击9*2</v>
@@ -1362,11 +1415,12 @@
         <v>2</v>
       </c>
       <c r="J24" s="3"/>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="3"/>
+      <c r="L24" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" t="str">
         <f>"获得"&amp;I25&amp;"把幻剑"</f>
         <v>获得2把幻剑</v>
@@ -1392,9 +1446,10 @@
         <v>27</v>
       </c>
       <c r="J25" s="3"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K25" s="3"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" t="str">
         <f>"获得"&amp;I26&amp;"把幻剑"</f>
         <v>获得3把幻剑</v>
@@ -1420,9 +1475,10 @@
         <v>28</v>
       </c>
       <c r="J26" s="3"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="K26" s="3"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" t="str">
         <f>"攻击"&amp;H27&amp;" * ("&amp;J27&amp;"X + "&amp;I27&amp;")"</f>
         <v>攻击8 * (1X + 0)</v>
@@ -1450,11 +1506,12 @@
       <c r="J27" s="3">
         <v>1</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="3"/>
+      <c r="L27" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" t="str">
         <f>"攻击"&amp;H28&amp;" * ("&amp;J28&amp;"X + "&amp;I28&amp;")"</f>
         <v>攻击11 * (1X + 0)</v>
@@ -1482,11 +1539,12 @@
       <c r="J28" s="3">
         <v>1</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="3"/>
+      <c r="L28" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" t="str">
         <f>"获得("&amp;J28&amp;"X + "&amp;I28&amp;")把幻剑"</f>
         <v>获得(1X + 0)把幻剑</v>
@@ -1514,7 +1572,40 @@
       <c r="J29" s="3">
         <v>1</v>
       </c>
-      <c r="K29" s="1"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="3">
+        <v>29</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>6</v>
+      </c>
+      <c r="H30" s="3">
+        <v>6</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L30" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel/K卡牌效果表.xlsx
+++ b/excel/K卡牌效果表.xlsx
@@ -237,7 +237,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -257,6 +257,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -351,8 +354,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:L30" tableType="xml" totalsRowShown="0" connectionId="6">
-  <autoFilter ref="B1:L30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:L39" tableType="xml" totalsRowShown="0" connectionId="6">
+  <autoFilter ref="B1:L39"/>
   <tableColumns count="11">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
       <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nDataExcept" xmlDataType="string"/>
@@ -679,7 +682,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
@@ -1606,6 +1609,232 @@
         <v>34</v>
       </c>
       <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" t="str">
+        <f>"攻击敌方全体"&amp;H31&amp;" * ("&amp;J31&amp;"X + "&amp;I31&amp;")"</f>
+        <v>攻击敌方全体5 * (1X + 0)</v>
+      </c>
+      <c r="D31" s="3">
+        <v>30</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>3</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>5</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1</v>
+      </c>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" t="str">
+        <f>"攻击敌方全体"&amp;H32&amp;" * ("&amp;J32&amp;"X + "&amp;I32&amp;")"</f>
+        <v>攻击敌方全体8 * (1X + 0)</v>
+      </c>
+      <c r="D32" s="3">
+        <v>31</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7">
+        <v>3</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>8</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1</v>
+      </c>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A33" t="str">
+        <f>"攻击"&amp;H33</f>
+        <v>攻击27</v>
+      </c>
+      <c r="D33" s="3">
+        <v>32</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>27</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A34" t="str">
+        <f>"攻击"&amp;H34</f>
+        <v>攻击38</v>
+      </c>
+      <c r="D34" s="3">
+        <v>33</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>38</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1</v>
+      </c>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A35" t="str">
+        <f>"攻击"&amp;H35&amp;"无视护甲"</f>
+        <v>攻击12无视护甲</v>
+      </c>
+      <c r="D35" s="3">
+        <v>34</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="7">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2">
+        <v>7</v>
+      </c>
+      <c r="H35" s="2">
+        <v>12</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A36" t="str">
+        <f>"攻击"&amp;H36</f>
+        <v>攻击10</v>
+      </c>
+      <c r="D36" s="3">
+        <v>35</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2">
+        <v>10</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A37" t="str">
+        <f>"攻击"&amp;H37</f>
+        <v>攻击15</v>
+      </c>
+      <c r="D37" s="3">
+        <v>36</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="7">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2">
+        <v>15</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1</v>
+      </c>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A38" t="str">
+        <f>"获得"&amp;H38&amp;"费"</f>
+        <v>获得1费</v>
+      </c>
+      <c r="D38" s="3">
+        <v>37</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="7">
+        <v>4</v>
+      </c>
+      <c r="G38" s="2">
+        <v>5</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1</v>
+      </c>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A39" t="str">
+        <f>"获得"&amp;H39&amp;"费"</f>
+        <v>获得2费</v>
+      </c>
+      <c r="D39" s="3">
+        <v>38</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="7">
+        <v>4</v>
+      </c>
+      <c r="G39" s="2">
+        <v>5</v>
+      </c>
+      <c r="H39" s="2">
+        <v>2</v>
+      </c>
+      <c r="K39" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel/K卡牌效果表.xlsx
+++ b/excel/K卡牌效果表.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>效果ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,6 +183,18 @@
   </si>
   <si>
     <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身虚弱1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身虚弱2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身脆弱1回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -354,8 +366,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:L39" tableType="xml" totalsRowShown="0" connectionId="6">
-  <autoFilter ref="B1:L39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:L49" tableType="xml" totalsRowShown="0" connectionId="6">
+  <autoFilter ref="B1:L49"/>
   <tableColumns count="11">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
       <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nDataExcept" xmlDataType="string"/>
@@ -682,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1666,7 +1678,7 @@
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" t="str">
         <f>"攻击"&amp;H33</f>
         <v>攻击27</v>
@@ -1691,7 +1703,7 @@
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" t="str">
         <f>"攻击"&amp;H34</f>
         <v>攻击38</v>
@@ -1716,7 +1728,7 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" t="str">
         <f>"攻击"&amp;H35&amp;"无视护甲"</f>
         <v>攻击12无视护甲</v>
@@ -1741,7 +1753,7 @@
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" t="str">
         <f>"攻击"&amp;H36</f>
         <v>攻击10</v>
@@ -1767,7 +1779,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" t="str">
         <f>"攻击"&amp;H37</f>
         <v>攻击15</v>
@@ -1792,7 +1804,7 @@
       </c>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" t="str">
         <f>"获得"&amp;H38&amp;"费"</f>
         <v>获得1费</v>
@@ -1812,9 +1824,12 @@
       <c r="H38" s="2">
         <v>1</v>
       </c>
+      <c r="I38" s="2">
+        <v>1</v>
+      </c>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" t="str">
         <f>"获得"&amp;H39&amp;"费"</f>
         <v>获得2费</v>
@@ -1834,7 +1849,274 @@
       <c r="H39" s="2">
         <v>2</v>
       </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
       <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A40" t="str">
+        <f>"攻击"&amp;H40</f>
+        <v>攻击6</v>
+      </c>
+      <c r="D40" s="2">
+        <v>39</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2">
+        <v>6</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+      <c r="K40" s="3"/>
+      <c r="L40">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A41" t="str">
+        <f>"攻击"&amp;H41</f>
+        <v>攻击8</v>
+      </c>
+      <c r="D41" s="2">
+        <v>40</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="7">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2">
+        <v>8</v>
+      </c>
+      <c r="I41" s="2">
+        <v>1</v>
+      </c>
+      <c r="K41" s="3"/>
+      <c r="L41">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A42" t="str">
+        <f>"获得"&amp;I42&amp;"回合易伤"</f>
+        <v>获得1回合易伤</v>
+      </c>
+      <c r="D42" s="2">
+        <v>41</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="7">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <v>3</v>
+      </c>
+      <c r="H42" s="2">
+        <v>9</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A43" t="str">
+        <f>"获得"&amp;I43&amp;"回合易伤"</f>
+        <v>获得2回合易伤</v>
+      </c>
+      <c r="D43" s="2">
+        <v>42</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="7">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2">
+        <v>3</v>
+      </c>
+      <c r="H43" s="2">
+        <v>9</v>
+      </c>
+      <c r="I43" s="2">
+        <v>2</v>
+      </c>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A44" t="str">
+        <f>"攻击"&amp;H44</f>
+        <v>攻击35</v>
+      </c>
+      <c r="D44" s="2">
+        <v>43</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="7">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2">
+        <v>35</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1</v>
+      </c>
+      <c r="K44" s="3"/>
+      <c r="L44">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="2">
+        <v>44</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="7">
+        <v>4</v>
+      </c>
+      <c r="G45" s="2">
+        <v>3</v>
+      </c>
+      <c r="H45" s="2">
+        <v>8</v>
+      </c>
+      <c r="I45" s="2">
+        <v>1</v>
+      </c>
+      <c r="K45" s="3"/>
+      <c r="L45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="2">
+        <v>45</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="7">
+        <v>4</v>
+      </c>
+      <c r="G46" s="2">
+        <v>3</v>
+      </c>
+      <c r="H46" s="2">
+        <v>10</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1</v>
+      </c>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A47" t="str">
+        <f>"攻击"&amp;H47</f>
+        <v>攻击45</v>
+      </c>
+      <c r="D47" s="2">
+        <v>46</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="7">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2">
+        <v>45</v>
+      </c>
+      <c r="I47" s="2">
+        <v>1</v>
+      </c>
+      <c r="K47" s="3"/>
+      <c r="L47">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="2">
+        <v>47</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="7">
+        <v>4</v>
+      </c>
+      <c r="G48" s="2">
+        <v>3</v>
+      </c>
+      <c r="H48" s="2">
+        <v>8</v>
+      </c>
+      <c r="I48" s="2">
+        <v>2</v>
+      </c>
+      <c r="K48" s="3"/>
+      <c r="L48">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="2">
+        <v>48</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="7">
+        <v>4</v>
+      </c>
+      <c r="G49" s="2">
+        <v>3</v>
+      </c>
+      <c r="H49" s="2">
+        <v>10</v>
+      </c>
+      <c r="I49" s="2">
+        <v>1</v>
+      </c>
+      <c r="K49" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel/K卡牌效果表.xlsx
+++ b/excel/K卡牌效果表.xlsx
@@ -366,8 +366,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:L49" tableType="xml" totalsRowShown="0" connectionId="6">
-  <autoFilter ref="B1:L49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:L57" tableType="xml" totalsRowShown="0" connectionId="6">
+  <autoFilter ref="B1:L57"/>
   <tableColumns count="11">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
       <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nDataExcept" xmlDataType="string"/>
@@ -694,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2094,7 +2094,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>37</v>
       </c>
@@ -2117,6 +2117,200 @@
         <v>1</v>
       </c>
       <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A50" t="str">
+        <f>"自身减少"&amp;H50&amp;"血"</f>
+        <v>自身减少4血</v>
+      </c>
+      <c r="D50" s="2">
+        <v>49</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="7">
+        <v>4</v>
+      </c>
+      <c r="G50" s="2">
+        <v>8</v>
+      </c>
+      <c r="H50" s="2">
+        <v>4</v>
+      </c>
+      <c r="K50" s="3"/>
+      <c r="L50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A51" t="str">
+        <f>"抽"&amp;H51&amp;"张牌"</f>
+        <v>抽2张牌</v>
+      </c>
+      <c r="D51" s="2">
+        <v>50</v>
+      </c>
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+      <c r="F51" s="7">
+        <v>4</v>
+      </c>
+      <c r="G51" s="2">
+        <v>4</v>
+      </c>
+      <c r="H51" s="2">
+        <v>2</v>
+      </c>
+      <c r="K51" s="3"/>
+      <c r="L51">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A52" t="str">
+        <f>"防御"&amp;H52</f>
+        <v>防御4</v>
+      </c>
+      <c r="D52" s="2">
+        <v>51</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="7">
+        <v>4</v>
+      </c>
+      <c r="G52" s="2">
+        <v>2</v>
+      </c>
+      <c r="H52" s="2">
+        <v>4</v>
+      </c>
+      <c r="K52" s="3"/>
+      <c r="L52">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A53" t="str">
+        <f>"获得"&amp;H53&amp;"费"</f>
+        <v>获得2费</v>
+      </c>
+      <c r="D53" s="2">
+        <v>52</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="7">
+        <v>4</v>
+      </c>
+      <c r="G53" s="2">
+        <v>5</v>
+      </c>
+      <c r="H53" s="2">
+        <v>2</v>
+      </c>
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A54" t="str">
+        <f>"自身减少"&amp;H54&amp;"血"</f>
+        <v>自身减少4血</v>
+      </c>
+      <c r="D54" s="2">
+        <v>53</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="7">
+        <v>4</v>
+      </c>
+      <c r="G54" s="2">
+        <v>8</v>
+      </c>
+      <c r="H54" s="2">
+        <v>4</v>
+      </c>
+      <c r="K54" s="3"/>
+      <c r="L54">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A55" t="str">
+        <f>"抽"&amp;H55&amp;"张牌"</f>
+        <v>抽3张牌</v>
+      </c>
+      <c r="D55" s="2">
+        <v>54</v>
+      </c>
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+      <c r="F55" s="7">
+        <v>4</v>
+      </c>
+      <c r="G55" s="2">
+        <v>4</v>
+      </c>
+      <c r="H55" s="2">
+        <v>3</v>
+      </c>
+      <c r="K55" s="3"/>
+      <c r="L55">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A56" t="str">
+        <f>"防御"&amp;H56</f>
+        <v>防御6</v>
+      </c>
+      <c r="D56" s="2">
+        <v>55</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="7">
+        <v>4</v>
+      </c>
+      <c r="G56" s="2">
+        <v>2</v>
+      </c>
+      <c r="H56" s="2">
+        <v>6</v>
+      </c>
+      <c r="K56" s="3"/>
+      <c r="L56">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A57" t="str">
+        <f>"获得"&amp;H57&amp;"费"</f>
+        <v>获得2费</v>
+      </c>
+      <c r="D57" s="2">
+        <v>56</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="7">
+        <v>4</v>
+      </c>
+      <c r="G57" s="2">
+        <v>5</v>
+      </c>
+      <c r="H57" s="2">
+        <v>2</v>
+      </c>
+      <c r="K57" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel/K卡牌效果表.xlsx
+++ b/excel/K卡牌效果表.xlsx
@@ -40,11 +40,14 @@
   <connection id="6" name="CardEffectTemplate_table4" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\CardDoc\define\template\excel\CardEffectTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="7" name="CardEffectTemplate_table5" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\CardDoc\define\template\excel\CardEffectTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>效果ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,6 +198,22 @@
   </si>
   <si>
     <t>自身脆弱1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽牌，直到抽到的不是攻击牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -249,7 +268,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -271,14 +290,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -320,7 +339,7 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema2">
+  <Schema ID="Schema3">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="LocalDatas">
         <xsd:complexType>
@@ -338,6 +357,7 @@
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nDataDiff" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nId" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="iEffectTrigType" form="unqualified"/>
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="iTrigVal" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nTarget" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nType" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="iEffectValue" form="unqualified"/>
@@ -359,48 +379,51 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="6" Name="LocalDatas_映射" RootElement="LocalDatas" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="6" DataBindingLoadMode="1"/>
+  <Map ID="7" Name="LocalDatas_映射" RootElement="LocalDatas" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="7" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:L57" tableType="xml" totalsRowShown="0" connectionId="6">
-  <autoFilter ref="B1:L57"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:M64" tableType="xml" totalsRowShown="0" connectionId="7">
+  <autoFilter ref="B1:M64"/>
+  <tableColumns count="12">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
-      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nDataExcept" xmlDataType="string"/>
+      <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nDataExcept" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="nDataDiff" name="nDataDiff">
-      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nDataDiff" xmlDataType="string"/>
+      <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nDataDiff" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="nId" name="效果ID" dataDxfId="7">
-      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nId" xmlDataType="string"/>
+    <tableColumn id="3" uniqueName="nId" name="效果ID" dataDxfId="8">
+      <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nId" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="iEffectTrigType" name="效果触发条件" dataDxfId="6">
-      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectTrigType" xmlDataType="string"/>
+    <tableColumn id="7" uniqueName="iEffectTrigType" name="效果触发条件" dataDxfId="7">
+      <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectTrigType" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="nTarget" name="效果目标" dataDxfId="5">
-      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nTarget" xmlDataType="string"/>
+    <tableColumn id="12" uniqueName="iTrigVal" name="触发参数" dataDxfId="0">
+      <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iTrigVal" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="nType" name="效果类型" dataDxfId="4">
-      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nType" xmlDataType="string"/>
+    <tableColumn id="8" uniqueName="nTarget" name="效果目标" dataDxfId="6">
+      <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nTarget" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="iEffectValue" name="效果值" dataDxfId="3">
-      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectValue" xmlDataType="string"/>
+    <tableColumn id="4" uniqueName="nType" name="效果类型" dataDxfId="5">
+      <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nType" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="iEffectCount" name="效果次数" dataDxfId="2">
-      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectCount" xmlDataType="string"/>
+    <tableColumn id="5" uniqueName="iEffectValue" name="效果值" dataDxfId="4">
+      <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectValue" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="iCostEffectTimes" name="费用效果倍数" dataDxfId="1">
-      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iCostEffectTimes" xmlDataType="string"/>
+    <tableColumn id="9" uniqueName="iEffectCount" name="效果次数" dataDxfId="3">
+      <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectCount" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="iEffectValue_2" name="2级效果值" dataDxfId="0">
-      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectValue_2" xmlDataType="string"/>
+    <tableColumn id="10" uniqueName="iCostEffectTimes" name="费用效果倍数" dataDxfId="2">
+      <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iCostEffectTimes" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="11" uniqueName="iEffectValue_2" name="2级效果值" dataDxfId="1">
+      <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectValue_2" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="nLinkId" name="关联效果ID">
-      <xmlColumnPr mapId="6" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nLinkId" xmlDataType="string"/>
+      <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nLinkId" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -694,10 +717,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -706,16 +730,16 @@
     <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="2" customWidth="1"/>
-    <col min="10" max="11" width="15.875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.25" customWidth="1"/>
+    <col min="5" max="6" width="13.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="2" customWidth="1"/>
+    <col min="11" max="12" width="15.875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -732,30 +756,33 @@
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="H1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="str">
-        <f>"攻击"&amp;H2</f>
+        <f>"攻击"&amp;I2</f>
         <v>攻击6</v>
       </c>
       <c r="B2" s="1"/>
@@ -766,25 +793,26 @@
       <c r="E2" s="4">
         <v>0</v>
       </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4">
         <v>1</v>
       </c>
       <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L2" s="3"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="str">
-        <f>"攻击"&amp;H3</f>
+        <f>"攻击"&amp;I3</f>
         <v>攻击9</v>
       </c>
       <c r="B3" s="1"/>
@@ -795,25 +823,26 @@
       <c r="E3" s="3">
         <v>0</v>
       </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
+      <c r="F3" s="3"/>
       <c r="G3" s="3">
         <v>1</v>
       </c>
       <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
         <v>9</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L3" s="3"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="str">
-        <f>"防御"&amp;H4</f>
+        <f>"防御"&amp;I4</f>
         <v>防御5</v>
       </c>
       <c r="B4" s="1"/>
@@ -824,25 +853,26 @@
       <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="3">
-        <v>4</v>
-      </c>
+      <c r="F4" s="3"/>
       <c r="G4" s="3">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3">
         <v>2</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>5</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L4" s="3"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" t="str">
-        <f>"防御"&amp;H5</f>
+        <f>"防御"&amp;I5</f>
         <v>防御8</v>
       </c>
       <c r="B5" s="1"/>
@@ -853,23 +883,24 @@
       <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="F5" s="3">
-        <v>4</v>
-      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="3">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3">
         <v>2</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>8</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L5" s="3"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -881,23 +912,24 @@
       <c r="E6" s="3">
         <v>0</v>
       </c>
-      <c r="F6" s="3">
-        <v>4</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3">
+        <v>4</v>
+      </c>
+      <c r="H6" s="6">
         <v>3</v>
       </c>
-      <c r="H6" s="6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L6" s="6"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -909,23 +941,24 @@
       <c r="E7" s="3">
         <v>0</v>
       </c>
-      <c r="F7" s="3">
-        <v>4</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
+        <v>4</v>
+      </c>
+      <c r="H7" s="6">
         <v>3</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="6">
         <v>2</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="6"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L7" s="6"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -937,23 +970,24 @@
       <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="3">
-        <v>4</v>
-      </c>
-      <c r="G8" s="6">
-        <v>3</v>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3">
+        <v>4</v>
       </c>
       <c r="H8" s="6">
         <v>3</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="6">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L8" s="6"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -965,25 +999,26 @@
       <c r="E9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="3">
-        <v>4</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
+        <v>4</v>
+      </c>
+      <c r="H9" s="6">
         <v>3</v>
       </c>
-      <c r="H9" s="6">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="6">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="6"/>
       <c r="K9" s="6"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L9" s="6"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" t="str">
-        <f>"抽"&amp;H10&amp;"张牌"</f>
+        <f>"抽"&amp;I10&amp;"张牌"</f>
         <v>抽3张牌</v>
       </c>
       <c r="B10" s="1"/>
@@ -994,27 +1029,28 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="3">
-        <v>4</v>
-      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3">
         <v>4</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="3">
+        <v>4</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="6"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="1">
+      <c r="L10" s="6"/>
+      <c r="M10" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" t="str">
-        <f>"抽"&amp;H11&amp;"张牌"</f>
+        <f>"抽"&amp;I11&amp;"张牌"</f>
         <v>抽4张牌</v>
       </c>
       <c r="B11" s="1"/>
@@ -1025,25 +1061,26 @@
       <c r="E11" s="3">
         <v>0</v>
       </c>
-      <c r="F11" s="3">
-        <v>4</v>
-      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3">
         <v>4</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="3">
+        <v>4</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="6"/>
       <c r="K11" s="6"/>
-      <c r="L11" s="1">
+      <c r="L11" s="6"/>
+      <c r="M11" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1055,25 +1092,26 @@
       <c r="E12" s="3">
         <v>0</v>
       </c>
-      <c r="F12" s="3">
-        <v>4</v>
-      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="3">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3">
         <v>3</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L12" s="6"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" t="str">
-        <f>"防御"&amp;H13</f>
+        <f>"防御"&amp;I13</f>
         <v>防御8</v>
       </c>
       <c r="B13" s="1"/>
@@ -1084,27 +1122,28 @@
       <c r="E13" s="3">
         <v>0</v>
       </c>
-      <c r="F13" s="3">
-        <v>4</v>
-      </c>
+      <c r="F13" s="3"/>
       <c r="G13" s="3">
+        <v>4</v>
+      </c>
+      <c r="H13" s="3">
         <v>2</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <v>8</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="1">
+      <c r="L13" s="3"/>
+      <c r="M13" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" t="str">
-        <f>"防御"&amp;H14</f>
+        <f>"防御"&amp;I14</f>
         <v>防御11</v>
       </c>
       <c r="B14" s="1"/>
@@ -1115,27 +1154,28 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
-        <v>4</v>
-      </c>
+      <c r="F14" s="3"/>
       <c r="G14" s="3">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
         <v>2</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>11</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="1">
+      <c r="L14" s="3"/>
+      <c r="M14" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" t="str">
-        <f>"抽"&amp;H15&amp;"张牌"</f>
+        <f>"抽"&amp;I15&amp;"张牌"</f>
         <v>抽1张牌</v>
       </c>
       <c r="B15" s="1"/>
@@ -1146,25 +1186,26 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3">
-        <v>4</v>
-      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="3">
         <v>4</v>
       </c>
       <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L15" s="3"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" t="str">
-        <f>"攻击"&amp;H16</f>
+        <f>"攻击"&amp;I16</f>
         <v>攻击6</v>
       </c>
       <c r="B16" s="1"/>
@@ -1175,27 +1216,28 @@
       <c r="E16" s="4">
         <v>0</v>
       </c>
-      <c r="F16" s="4">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="F16" s="4"/>
+      <c r="G16" s="4">
         <v>1</v>
       </c>
       <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
         <v>6</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="1">
+      <c r="L16" s="3"/>
+      <c r="M16" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" t="str">
-        <f>"攻击"&amp;H17</f>
+        <f>"攻击"&amp;I17</f>
         <v>攻击9</v>
       </c>
       <c r="B17" s="1"/>
@@ -1206,27 +1248,28 @@
       <c r="E17" s="3">
         <v>0</v>
       </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
+      <c r="F17" s="3"/>
       <c r="G17" s="3">
         <v>1</v>
       </c>
       <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
         <v>9</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="1">
+      <c r="L17" s="3"/>
+      <c r="M17" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" t="str">
-        <f>"造成未被格挡的伤害，得"&amp;H18&amp;"费"</f>
+        <f>"造成未被格挡的伤害，得"&amp;I18&amp;"费"</f>
         <v>造成未被格挡的伤害，得1费</v>
       </c>
       <c r="B18" s="1"/>
@@ -1237,25 +1280,26 @@
       <c r="E18" s="3">
         <v>25</v>
       </c>
-      <c r="F18" s="3">
-        <v>4</v>
-      </c>
+      <c r="F18" s="3"/>
       <c r="G18" s="3">
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
         <v>5</v>
       </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L18" s="3"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" t="str">
-        <f>"攻击"&amp;H19</f>
+        <f>"攻击"&amp;I19</f>
         <v>攻击8</v>
       </c>
       <c r="B19" s="1"/>
@@ -1266,27 +1310,28 @@
       <c r="E19" s="3">
         <v>0</v>
       </c>
-      <c r="F19" s="4">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="F19" s="3"/>
+      <c r="G19" s="4">
         <v>1</v>
       </c>
       <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
         <v>8</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" s="1">
+      <c r="L19" s="3"/>
+      <c r="M19" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" t="str">
-        <f>"攻击"&amp;H20</f>
+        <f>"攻击"&amp;I20</f>
         <v>攻击12</v>
       </c>
       <c r="B20" s="1"/>
@@ -1297,27 +1342,28 @@
       <c r="E20" s="3">
         <v>0</v>
       </c>
-      <c r="F20" s="4">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="F20" s="3"/>
+      <c r="G20" s="4">
         <v>1</v>
       </c>
       <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
         <v>12</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="1">
+      <c r="L20" s="3"/>
+      <c r="M20" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" t="str">
-        <f>"获得"&amp;I21&amp;"把幻剑"</f>
+        <f>"获得"&amp;J21&amp;"把幻剑"</f>
         <v>获得1把幻剑</v>
       </c>
       <c r="B21" s="1"/>
@@ -1328,25 +1374,26 @@
       <c r="E21" s="3">
         <v>0</v>
       </c>
-      <c r="F21" s="3">
-        <v>4</v>
-      </c>
+      <c r="F21" s="3"/>
       <c r="G21" s="3">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>6</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L21" s="3"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" t="str">
-        <f>"获得"&amp;I22&amp;"把幻剑"</f>
+        <f>"获得"&amp;J22&amp;"把幻剑"</f>
         <v>获得2把幻剑</v>
       </c>
       <c r="B22" s="1"/>
@@ -1357,25 +1404,26 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3">
-        <v>4</v>
-      </c>
+      <c r="F22" s="3"/>
       <c r="G22" s="3">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
         <v>3</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L22" s="3"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" t="str">
-        <f>"攻击"&amp;H23&amp;"*"&amp;I23</f>
+        <f>"攻击"&amp;I23&amp;"*"&amp;J23</f>
         <v>攻击7*2</v>
       </c>
       <c r="B23" s="1"/>
@@ -1386,27 +1434,28 @@
       <c r="E23" s="3">
         <v>0</v>
       </c>
-      <c r="F23" s="4">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="F23" s="3"/>
+      <c r="G23" s="4">
         <v>1</v>
       </c>
       <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
         <v>7</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2</v>
       </c>
-      <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" s="1" t="s">
+      <c r="L23" s="3"/>
+      <c r="M23" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" t="str">
-        <f>"攻击"&amp;H24&amp;"*"&amp;I24</f>
+        <f>"攻击"&amp;I24&amp;"*"&amp;J24</f>
         <v>攻击9*2</v>
       </c>
       <c r="B24" s="1"/>
@@ -1417,27 +1466,28 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="4">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="F24" s="3"/>
+      <c r="G24" s="4">
         <v>1</v>
       </c>
       <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
         <v>9</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2</v>
       </c>
-      <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="1" t="s">
+      <c r="L24" s="3"/>
+      <c r="M24" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" t="str">
-        <f>"获得"&amp;I25&amp;"把幻剑"</f>
+        <f>"获得"&amp;J25&amp;"把幻剑"</f>
         <v>获得2把幻剑</v>
       </c>
       <c r="B25" s="1"/>
@@ -1448,25 +1498,26 @@
       <c r="E25" s="3">
         <v>0</v>
       </c>
-      <c r="F25" s="3">
-        <v>4</v>
-      </c>
+      <c r="F25" s="3"/>
       <c r="G25" s="3">
+        <v>4</v>
+      </c>
+      <c r="H25" s="3">
         <v>3</v>
       </c>
-      <c r="H25" s="3">
+      <c r="I25" s="3">
         <v>6</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L25" s="3"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" t="str">
-        <f>"获得"&amp;I26&amp;"把幻剑"</f>
+        <f>"获得"&amp;J26&amp;"把幻剑"</f>
         <v>获得3把幻剑</v>
       </c>
       <c r="B26" s="1"/>
@@ -1477,25 +1528,26 @@
       <c r="E26" s="3">
         <v>0</v>
       </c>
-      <c r="F26" s="3">
-        <v>4</v>
-      </c>
+      <c r="F26" s="3"/>
       <c r="G26" s="3">
+        <v>4</v>
+      </c>
+      <c r="H26" s="3">
         <v>3</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L26" s="3"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" t="str">
-        <f>"攻击"&amp;H27&amp;" * ("&amp;J27&amp;"X + "&amp;I27&amp;")"</f>
+        <f>"攻击"&amp;I27&amp;" * ("&amp;K27&amp;"X + "&amp;J27&amp;")"</f>
         <v>攻击8 * (1X + 0)</v>
       </c>
       <c r="B27" s="1"/>
@@ -1506,29 +1558,30 @@
       <c r="E27" s="3">
         <v>0</v>
       </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
+      <c r="F27" s="3"/>
       <c r="G27" s="3">
         <v>1</v>
       </c>
       <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
         <v>8</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
-        <v>1</v>
-      </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="1">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" t="str">
-        <f>"攻击"&amp;H28&amp;" * ("&amp;J28&amp;"X + "&amp;I28&amp;")"</f>
+        <f>"攻击"&amp;I28&amp;" * ("&amp;K28&amp;"X + "&amp;J28&amp;")"</f>
         <v>攻击11 * (1X + 0)</v>
       </c>
       <c r="B28" s="1"/>
@@ -1539,29 +1592,30 @@
       <c r="E28" s="3">
         <v>0</v>
       </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
+      <c r="F28" s="3"/>
       <c r="G28" s="3">
         <v>1</v>
       </c>
       <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
         <v>11</v>
       </c>
-      <c r="I28" s="3">
-        <v>0</v>
-      </c>
       <c r="J28" s="3">
-        <v>1</v>
-      </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="1">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" t="str">
-        <f>"获得("&amp;J28&amp;"X + "&amp;I28&amp;")把幻剑"</f>
+        <f>"获得("&amp;K28&amp;"X + "&amp;J28&amp;")把幻剑"</f>
         <v>获得(1X + 0)把幻剑</v>
       </c>
       <c r="B29" s="1"/>
@@ -1572,25 +1626,26 @@
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3">
-        <v>4</v>
-      </c>
+      <c r="F29" s="3"/>
       <c r="G29" s="3">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3">
         <v>3</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>6</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
-        <v>1</v>
-      </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>1</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -1602,715 +1657,1055 @@
       <c r="E30" s="3">
         <v>0</v>
       </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
+      <c r="F30" s="3"/>
       <c r="G30" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H30" s="3">
         <v>6</v>
       </c>
       <c r="I30" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" t="str">
-        <f>"攻击敌方全体"&amp;H31&amp;" * ("&amp;J31&amp;"X + "&amp;I31&amp;")"</f>
+        <f>"攻击敌方全体"&amp;I31&amp;" * ("&amp;K31&amp;"X + "&amp;J31&amp;")"</f>
         <v>攻击敌方全体5 * (1X + 0)</v>
       </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
       <c r="D31" s="3">
         <v>30</v>
       </c>
       <c r="E31" s="3">
         <v>0</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="3"/>
+      <c r="G31" s="3">
         <v>3</v>
       </c>
-      <c r="G31" s="2">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2">
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3">
         <v>5</v>
       </c>
-      <c r="I31" s="2">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2">
-        <v>1</v>
-      </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" t="str">
-        <f>"攻击敌方全体"&amp;H32&amp;" * ("&amp;J32&amp;"X + "&amp;I32&amp;")"</f>
+        <f>"攻击敌方全体"&amp;I32&amp;" * ("&amp;K32&amp;"X + "&amp;J32&amp;")"</f>
         <v>攻击敌方全体8 * (1X + 0)</v>
       </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
       <c r="D32" s="3">
         <v>31</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="3"/>
+      <c r="G32" s="3">
         <v>3</v>
       </c>
-      <c r="G32" s="2">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2">
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3">
         <v>8</v>
       </c>
-      <c r="I32" s="2">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2">
-        <v>1</v>
-      </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" t="str">
-        <f>"攻击"&amp;H33</f>
+        <f>"攻击"&amp;I33</f>
         <v>攻击27</v>
       </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
       <c r="D33" s="3">
         <v>32</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
       </c>
-      <c r="F33" s="7">
-        <v>1</v>
-      </c>
-      <c r="G33" s="2">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2">
+      <c r="F33" s="3"/>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3">
         <v>27</v>
       </c>
-      <c r="I33" s="2">
+      <c r="J33" s="3">
         <v>1</v>
       </c>
       <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L33" s="3"/>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" t="str">
-        <f>"攻击"&amp;H34</f>
+        <f>"攻击"&amp;I34</f>
         <v>攻击38</v>
       </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
       <c r="D34" s="3">
         <v>33</v>
       </c>
       <c r="E34" s="3">
         <v>0</v>
       </c>
-      <c r="F34" s="7">
-        <v>1</v>
-      </c>
-      <c r="G34" s="2">
-        <v>1</v>
-      </c>
-      <c r="H34" s="2">
+      <c r="F34" s="3"/>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3">
         <v>38</v>
       </c>
-      <c r="I34" s="2">
+      <c r="J34" s="3">
         <v>1</v>
       </c>
       <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L34" s="3"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35" t="str">
-        <f>"攻击"&amp;H35&amp;"无视护甲"</f>
+        <f>"攻击"&amp;I35&amp;"无视护甲"</f>
         <v>攻击12无视护甲</v>
       </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
       <c r="D35" s="3">
         <v>34</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
-      <c r="F35" s="7">
-        <v>1</v>
-      </c>
-      <c r="G35" s="2">
+      <c r="F35" s="3"/>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3">
         <v>7</v>
       </c>
-      <c r="H35" s="2">
+      <c r="I35" s="3">
         <v>12</v>
       </c>
-      <c r="I35" s="2">
+      <c r="J35" s="3">
         <v>1</v>
       </c>
       <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L35" s="3"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" t="str">
-        <f>"攻击"&amp;H36</f>
+        <f>"攻击"&amp;I36</f>
         <v>攻击10</v>
       </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
       <c r="D36" s="3">
         <v>35</v>
       </c>
       <c r="E36" s="3">
         <v>0</v>
       </c>
-      <c r="F36" s="7">
-        <v>1</v>
-      </c>
-      <c r="G36" s="2">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2">
+      <c r="F36" s="3"/>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3">
         <v>10</v>
       </c>
-      <c r="I36" s="2">
-        <v>1</v>
-      </c>
-      <c r="J36" s="3"/>
+      <c r="J36" s="3">
+        <v>1</v>
+      </c>
       <c r="K36" s="3"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L36" s="3"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" t="str">
-        <f>"攻击"&amp;H37</f>
+        <f>"攻击"&amp;I37</f>
         <v>攻击15</v>
       </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
       <c r="D37" s="3">
         <v>36</v>
       </c>
       <c r="E37" s="3">
         <v>0</v>
       </c>
-      <c r="F37" s="7">
-        <v>1</v>
-      </c>
-      <c r="G37" s="2">
-        <v>1</v>
-      </c>
-      <c r="H37" s="2">
+      <c r="F37" s="3"/>
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3">
         <v>15</v>
       </c>
-      <c r="I37" s="2">
+      <c r="J37" s="3">
         <v>1</v>
       </c>
       <c r="K37" s="3"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L37" s="3"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" t="str">
-        <f>"获得"&amp;H38&amp;"费"</f>
+        <f>"获得"&amp;I38&amp;"费"</f>
         <v>获得1费</v>
       </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
       <c r="D38" s="3">
         <v>37</v>
       </c>
       <c r="E38" s="3">
         <v>0</v>
       </c>
-      <c r="F38" s="7">
-        <v>4</v>
-      </c>
-      <c r="G38" s="2">
+      <c r="F38" s="3"/>
+      <c r="G38" s="3">
+        <v>4</v>
+      </c>
+      <c r="H38" s="3">
         <v>5</v>
       </c>
-      <c r="H38" s="2">
-        <v>1</v>
-      </c>
-      <c r="I38" s="2">
+      <c r="I38" s="3">
+        <v>1</v>
+      </c>
+      <c r="J38" s="3">
         <v>1</v>
       </c>
       <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L38" s="3"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" t="str">
-        <f>"获得"&amp;H39&amp;"费"</f>
+        <f>"获得"&amp;I39&amp;"费"</f>
         <v>获得2费</v>
       </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="3">
         <v>38</v>
       </c>
       <c r="E39" s="3">
         <v>0</v>
       </c>
-      <c r="F39" s="7">
-        <v>4</v>
-      </c>
-      <c r="G39" s="2">
+      <c r="F39" s="3"/>
+      <c r="G39" s="3">
+        <v>4</v>
+      </c>
+      <c r="H39" s="3">
         <v>5</v>
       </c>
-      <c r="H39" s="2">
+      <c r="I39" s="3">
         <v>2</v>
       </c>
-      <c r="I39" s="2">
+      <c r="J39" s="3">
         <v>1</v>
       </c>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L39" s="3"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" t="str">
-        <f>"攻击"&amp;H40</f>
+        <f>"攻击"&amp;I40</f>
         <v>攻击6</v>
       </c>
-      <c r="D40" s="2">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="3">
         <v>39</v>
       </c>
       <c r="E40" s="3">
         <v>0</v>
       </c>
-      <c r="F40" s="7">
-        <v>1</v>
-      </c>
-      <c r="G40" s="2">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2">
+      <c r="F40" s="3"/>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+      <c r="H40" s="3">
+        <v>1</v>
+      </c>
+      <c r="I40" s="3">
         <v>6</v>
       </c>
-      <c r="I40" s="2">
+      <c r="J40" s="3">
         <v>1</v>
       </c>
       <c r="K40" s="3"/>
-      <c r="L40">
+      <c r="L40" s="3"/>
+      <c r="M40" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" t="str">
-        <f>"攻击"&amp;H41</f>
+        <f>"攻击"&amp;I41</f>
         <v>攻击8</v>
       </c>
-      <c r="D41" s="2">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="3">
         <v>40</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
-      <c r="F41" s="7">
-        <v>1</v>
-      </c>
-      <c r="G41" s="2">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2">
+      <c r="F41" s="3"/>
+      <c r="G41" s="3">
+        <v>1</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1</v>
+      </c>
+      <c r="I41" s="3">
         <v>8</v>
       </c>
-      <c r="I41" s="2">
+      <c r="J41" s="3">
         <v>1</v>
       </c>
       <c r="K41" s="3"/>
-      <c r="L41">
+      <c r="L41" s="3"/>
+      <c r="M41" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" t="str">
-        <f>"获得"&amp;I42&amp;"回合易伤"</f>
+        <f>"获得"&amp;J42&amp;"回合易伤"</f>
         <v>获得1回合易伤</v>
       </c>
-      <c r="D42" s="2">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="3">
         <v>41</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
-      <c r="F42" s="7">
-        <v>1</v>
-      </c>
-      <c r="G42" s="2">
+      <c r="F42" s="3"/>
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3">
         <v>3</v>
       </c>
-      <c r="H42" s="2">
+      <c r="I42" s="3">
         <v>9</v>
       </c>
-      <c r="I42" s="2">
+      <c r="J42" s="3">
         <v>1</v>
       </c>
       <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L42" s="3"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43" t="str">
-        <f>"获得"&amp;I43&amp;"回合易伤"</f>
+        <f>"获得"&amp;J43&amp;"回合易伤"</f>
         <v>获得2回合易伤</v>
       </c>
-      <c r="D43" s="2">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="3">
         <v>42</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="7">
-        <v>1</v>
-      </c>
-      <c r="G43" s="2">
+      <c r="F43" s="3"/>
+      <c r="G43" s="3">
+        <v>1</v>
+      </c>
+      <c r="H43" s="3">
         <v>3</v>
       </c>
-      <c r="H43" s="2">
+      <c r="I43" s="3">
         <v>9</v>
       </c>
-      <c r="I43" s="2">
+      <c r="J43" s="3">
         <v>2</v>
       </c>
       <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L43" s="3"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44" t="str">
-        <f>"攻击"&amp;H44</f>
+        <f>"攻击"&amp;I44</f>
         <v>攻击35</v>
       </c>
-      <c r="D44" s="2">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="3">
         <v>43</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
       </c>
-      <c r="F44" s="7">
-        <v>1</v>
-      </c>
-      <c r="G44" s="2">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2">
+      <c r="F44" s="3"/>
+      <c r="G44" s="3">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1</v>
+      </c>
+      <c r="I44" s="3">
         <v>35</v>
       </c>
-      <c r="I44" s="2">
+      <c r="J44" s="3">
         <v>1</v>
       </c>
       <c r="K44" s="3"/>
-      <c r="L44">
+      <c r="L44" s="3"/>
+      <c r="M44" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="2">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="3">
         <v>44</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="7">
-        <v>4</v>
-      </c>
-      <c r="G45" s="2">
+      <c r="F45" s="3"/>
+      <c r="G45" s="3">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3">
         <v>3</v>
       </c>
-      <c r="H45" s="2">
+      <c r="I45" s="3">
         <v>8</v>
       </c>
-      <c r="I45" s="2">
+      <c r="J45" s="3">
         <v>1</v>
       </c>
       <c r="K45" s="3"/>
-      <c r="L45">
+      <c r="L45" s="3"/>
+      <c r="M45" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="2">
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="3">
         <v>45</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
       </c>
-      <c r="F46" s="7">
-        <v>4</v>
-      </c>
-      <c r="G46" s="2">
+      <c r="F46" s="3"/>
+      <c r="G46" s="3">
+        <v>4</v>
+      </c>
+      <c r="H46" s="3">
         <v>3</v>
       </c>
-      <c r="H46" s="2">
+      <c r="I46" s="3">
         <v>10</v>
       </c>
-      <c r="I46" s="2">
+      <c r="J46" s="3">
         <v>1</v>
       </c>
       <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L46" s="3"/>
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" t="str">
-        <f>"攻击"&amp;H47</f>
+        <f>"攻击"&amp;I47</f>
         <v>攻击45</v>
       </c>
-      <c r="D47" s="2">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="3">
         <v>46</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
       </c>
-      <c r="F47" s="7">
-        <v>1</v>
-      </c>
-      <c r="G47" s="2">
-        <v>1</v>
-      </c>
-      <c r="H47" s="2">
+      <c r="F47" s="3"/>
+      <c r="G47" s="3">
+        <v>1</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1</v>
+      </c>
+      <c r="I47" s="3">
         <v>45</v>
       </c>
-      <c r="I47" s="2">
+      <c r="J47" s="3">
         <v>1</v>
       </c>
       <c r="K47" s="3"/>
-      <c r="L47">
+      <c r="L47" s="3"/>
+      <c r="M47" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="2">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="3">
         <v>47</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
       </c>
-      <c r="F48" s="7">
-        <v>4</v>
-      </c>
-      <c r="G48" s="2">
+      <c r="F48" s="3"/>
+      <c r="G48" s="3">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3">
         <v>3</v>
       </c>
-      <c r="H48" s="2">
+      <c r="I48" s="3">
         <v>8</v>
       </c>
-      <c r="I48" s="2">
+      <c r="J48" s="3">
         <v>2</v>
       </c>
       <c r="K48" s="3"/>
-      <c r="L48">
+      <c r="L48" s="3"/>
+      <c r="M48" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>37</v>
       </c>
-      <c r="D49" s="2">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="3">
         <v>48</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
       </c>
-      <c r="F49" s="7">
-        <v>4</v>
-      </c>
-      <c r="G49" s="2">
+      <c r="F49" s="3"/>
+      <c r="G49" s="3">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3">
         <v>3</v>
       </c>
-      <c r="H49" s="2">
+      <c r="I49" s="3">
         <v>10</v>
       </c>
-      <c r="I49" s="2">
+      <c r="J49" s="3">
         <v>1</v>
       </c>
       <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L49" s="3"/>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" t="str">
-        <f>"自身减少"&amp;H50&amp;"血"</f>
+        <f>"自身减少"&amp;I50&amp;"血"</f>
         <v>自身减少4血</v>
       </c>
-      <c r="D50" s="2">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="3">
         <v>49</v>
       </c>
       <c r="E50" s="3">
         <v>0</v>
       </c>
-      <c r="F50" s="7">
-        <v>4</v>
-      </c>
-      <c r="G50" s="2">
+      <c r="F50" s="3"/>
+      <c r="G50" s="3">
+        <v>4</v>
+      </c>
+      <c r="H50" s="3">
         <v>8</v>
       </c>
-      <c r="H50" s="2">
-        <v>4</v>
-      </c>
+      <c r="I50" s="3">
+        <v>4</v>
+      </c>
+      <c r="J50" s="3"/>
       <c r="K50" s="3"/>
-      <c r="L50">
+      <c r="L50" s="3"/>
+      <c r="M50" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" t="str">
-        <f>"抽"&amp;H51&amp;"张牌"</f>
+        <f>"抽"&amp;I51&amp;"张牌"</f>
         <v>抽2张牌</v>
       </c>
-      <c r="D51" s="2">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="3">
         <v>50</v>
       </c>
       <c r="E51" s="3">
         <v>0</v>
       </c>
-      <c r="F51" s="7">
-        <v>4</v>
-      </c>
-      <c r="G51" s="2">
-        <v>4</v>
-      </c>
-      <c r="H51" s="2">
+      <c r="F51" s="3"/>
+      <c r="G51" s="3">
+        <v>4</v>
+      </c>
+      <c r="H51" s="3">
+        <v>4</v>
+      </c>
+      <c r="I51" s="3">
         <v>2</v>
       </c>
+      <c r="J51" s="3"/>
       <c r="K51" s="3"/>
-      <c r="L51">
+      <c r="L51" s="3"/>
+      <c r="M51" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" t="str">
-        <f>"防御"&amp;H52</f>
+        <f>"防御"&amp;I52</f>
         <v>防御4</v>
       </c>
-      <c r="D52" s="2">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="3">
         <v>51</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="7">
-        <v>4</v>
-      </c>
-      <c r="G52" s="2">
+      <c r="F52" s="3"/>
+      <c r="G52" s="3">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3">
         <v>2</v>
       </c>
-      <c r="H52" s="2">
-        <v>4</v>
-      </c>
+      <c r="I52" s="3">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3"/>
       <c r="K52" s="3"/>
-      <c r="L52">
+      <c r="L52" s="3"/>
+      <c r="M52" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" t="str">
-        <f>"获得"&amp;H53&amp;"费"</f>
+        <f>"获得"&amp;I53&amp;"费"</f>
         <v>获得2费</v>
       </c>
-      <c r="D53" s="2">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="3">
         <v>52</v>
       </c>
       <c r="E53" s="3">
         <v>0</v>
       </c>
-      <c r="F53" s="7">
-        <v>4</v>
-      </c>
-      <c r="G53" s="2">
+      <c r="F53" s="3"/>
+      <c r="G53" s="3">
+        <v>4</v>
+      </c>
+      <c r="H53" s="3">
         <v>5</v>
       </c>
-      <c r="H53" s="2">
+      <c r="I53" s="3">
         <v>2</v>
       </c>
+      <c r="J53" s="3"/>
       <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="L53" s="3"/>
+      <c r="M53" s="1"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" t="str">
-        <f>"自身减少"&amp;H54&amp;"血"</f>
+        <f>"自身减少"&amp;I54&amp;"血"</f>
         <v>自身减少4血</v>
       </c>
-      <c r="D54" s="2">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="3">
         <v>53</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
       </c>
-      <c r="F54" s="7">
-        <v>4</v>
-      </c>
-      <c r="G54" s="2">
+      <c r="F54" s="3"/>
+      <c r="G54" s="3">
+        <v>4</v>
+      </c>
+      <c r="H54" s="3">
         <v>8</v>
       </c>
-      <c r="H54" s="2">
-        <v>4</v>
-      </c>
+      <c r="I54" s="3">
+        <v>4</v>
+      </c>
+      <c r="J54" s="3"/>
       <c r="K54" s="3"/>
-      <c r="L54">
+      <c r="L54" s="3"/>
+      <c r="M54" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" t="str">
-        <f>"抽"&amp;H55&amp;"张牌"</f>
+        <f>"抽"&amp;I55&amp;"张牌"</f>
         <v>抽3张牌</v>
       </c>
-      <c r="D55" s="2">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="3">
         <v>54</v>
       </c>
       <c r="E55" s="3">
         <v>0</v>
       </c>
-      <c r="F55" s="7">
-        <v>4</v>
-      </c>
-      <c r="G55" s="2">
-        <v>4</v>
-      </c>
-      <c r="H55" s="2">
+      <c r="F55" s="3"/>
+      <c r="G55" s="3">
+        <v>4</v>
+      </c>
+      <c r="H55" s="3">
+        <v>4</v>
+      </c>
+      <c r="I55" s="3">
         <v>3</v>
       </c>
+      <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-      <c r="L55">
+      <c r="L55" s="3"/>
+      <c r="M55" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A56" t="str">
-        <f>"防御"&amp;H56</f>
+        <f>"防御"&amp;I56</f>
         <v>防御6</v>
       </c>
-      <c r="D56" s="2">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="3">
         <v>55</v>
       </c>
       <c r="E56" s="3">
         <v>0</v>
       </c>
-      <c r="F56" s="7">
-        <v>4</v>
-      </c>
-      <c r="G56" s="2">
+      <c r="F56" s="3"/>
+      <c r="G56" s="3">
+        <v>4</v>
+      </c>
+      <c r="H56" s="3">
         <v>2</v>
       </c>
-      <c r="H56" s="2">
+      <c r="I56" s="3">
         <v>6</v>
       </c>
+      <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-      <c r="L56">
+      <c r="L56" s="3"/>
+      <c r="M56" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" t="str">
-        <f>"获得"&amp;H57&amp;"费"</f>
+        <f>"获得"&amp;I57&amp;"费"</f>
         <v>获得2费</v>
       </c>
-      <c r="D57" s="2">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="3">
         <v>56</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
       </c>
-      <c r="F57" s="7">
-        <v>4</v>
-      </c>
-      <c r="G57" s="2">
+      <c r="F57" s="3"/>
+      <c r="G57" s="3">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3">
         <v>5</v>
       </c>
-      <c r="H57" s="2">
+      <c r="I57" s="3">
         <v>2</v>
       </c>
+      <c r="J57" s="3"/>
       <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="1"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="3">
+        <v>57</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="1"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A59" t="str">
+        <f>"后续"&amp;J59&amp;"回合，每回合额外获得1费"</f>
+        <v>后续3回合，每回合额外获得1费</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="3">
+        <v>58</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3">
+        <v>3</v>
+      </c>
+      <c r="I59" s="3">
+        <v>11</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3</v>
+      </c>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="1"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A60" t="str">
+        <f>"后续"&amp;J60&amp;"回合，每回合额外获得1费"</f>
+        <v>后续5回合，每回合额外获得1费</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="3">
+        <v>59</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3">
+        <v>4</v>
+      </c>
+      <c r="H60" s="3">
+        <v>3</v>
+      </c>
+      <c r="I60" s="3">
+        <v>11</v>
+      </c>
+      <c r="J60" s="3">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="1"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A61" t="str">
+        <f>"攻击"&amp;I61</f>
+        <v>攻击8</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="3">
+        <v>60</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3">
+        <v>1</v>
+      </c>
+      <c r="H61" s="3">
+        <v>1</v>
+      </c>
+      <c r="I61" s="3">
+        <v>8</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1</v>
+      </c>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A62" t="str">
+        <f>"如果有幻剑，抽"&amp;I62&amp;"张牌"</f>
+        <v>如果有幻剑，抽1张牌</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="3">
+        <v>61</v>
+      </c>
+      <c r="E62" s="3">
+        <v>17</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G62" s="3">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1</v>
+      </c>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="1"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A63" t="str">
+        <f>"攻击"&amp;I63</f>
+        <v>攻击10</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="3">
+        <v>62</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3">
+        <v>1</v>
+      </c>
+      <c r="H63" s="3">
+        <v>1</v>
+      </c>
+      <c r="I63" s="3">
+        <v>10</v>
+      </c>
+      <c r="J63" s="3">
+        <v>1</v>
+      </c>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A64" t="str">
+        <f>"如果有幻剑，抽"&amp;I64&amp;"张牌"</f>
+        <v>如果有幻剑，抽1张牌</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="3">
+        <v>63</v>
+      </c>
+      <c r="E64" s="3">
+        <v>17</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G64" s="3">
+        <v>4</v>
+      </c>
+      <c r="H64" s="3">
+        <v>4</v>
+      </c>
+      <c r="I64" s="3">
+        <v>1</v>
+      </c>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel/K卡牌效果表.xlsx
+++ b/excel/K卡牌效果表.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>效果ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,11 +209,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
+    <t>101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -720,8 +716,8 @@
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2691,7 +2687,7 @@
         <v>17</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G64" s="3">
         <v>4</v>

--- a/excel/K卡牌效果表.xlsx
+++ b/excel/K卡牌效果表.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>效果ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,6 +210,18 @@
   </si>
   <si>
     <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽一张牌，如果抽到的是攻击牌，再次执行该效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽一张牌，如果抽到的是攻击牌，再次执行该效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -292,9 +304,6 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -312,6 +321,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -382,8 +394,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:M64" tableType="xml" totalsRowShown="0" connectionId="7">
-  <autoFilter ref="B1:M64"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:M66" tableType="xml" totalsRowShown="0" connectionId="7">
+  <autoFilter ref="B1:M66"/>
   <tableColumns count="12">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
       <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nDataExcept" xmlDataType="string"/>
@@ -397,25 +409,25 @@
     <tableColumn id="7" uniqueName="iEffectTrigType" name="效果触发条件" dataDxfId="7">
       <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectTrigType" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="iTrigVal" name="触发参数" dataDxfId="0">
+    <tableColumn id="12" uniqueName="iTrigVal" name="触发参数" dataDxfId="6">
       <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iTrigVal" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="nTarget" name="效果目标" dataDxfId="6">
+    <tableColumn id="8" uniqueName="nTarget" name="效果目标" dataDxfId="5">
       <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nTarget" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="nType" name="效果类型" dataDxfId="5">
+    <tableColumn id="4" uniqueName="nType" name="效果类型" dataDxfId="4">
       <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nType" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="iEffectValue" name="效果值" dataDxfId="4">
+    <tableColumn id="5" uniqueName="iEffectValue" name="效果值" dataDxfId="3">
       <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectValue" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="iEffectCount" name="效果次数" dataDxfId="3">
+    <tableColumn id="9" uniqueName="iEffectCount" name="效果次数" dataDxfId="2">
       <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectCount" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="iCostEffectTimes" name="费用效果倍数" dataDxfId="2">
+    <tableColumn id="10" uniqueName="iCostEffectTimes" name="费用效果倍数" dataDxfId="1">
       <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iCostEffectTimes" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="iEffectValue_2" name="2级效果值" dataDxfId="1">
+    <tableColumn id="11" uniqueName="iEffectValue_2" name="2级效果值" dataDxfId="0">
       <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/iEffectValue_2" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="6" uniqueName="nLinkId" name="关联效果ID">
@@ -713,11 +725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2702,6 +2714,44 @@
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" s="3">
+        <v>64</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
+        <v>4</v>
+      </c>
+      <c r="H65" s="2">
+        <v>9</v>
+      </c>
+      <c r="L65" s="3"/>
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66" s="3">
+        <v>65</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H66" s="2">
+        <v>9</v>
+      </c>
+      <c r="L66" s="3"/>
+      <c r="M66" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel/K卡牌效果表.xlsx
+++ b/excel/K卡牌效果表.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
   <si>
     <t>效果ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,10 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抽牌，直到抽到的不是攻击牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>触发参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,6 +218,46 @@
   </si>
   <si>
     <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,8 +430,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:M66" tableType="xml" totalsRowShown="0" connectionId="7">
-  <autoFilter ref="B1:M66"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:M71" tableType="xml" totalsRowShown="0" connectionId="7">
+  <autoFilter ref="B1:M71"/>
   <tableColumns count="12">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
       <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nDataExcept" xmlDataType="string"/>
@@ -725,11 +761,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -764,7 +800,7 @@
         <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>19</v>
@@ -2505,28 +2541,31 @@
       <c r="M57" s="1"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>38</v>
+      <c r="A58" t="str">
+        <f>"后续"&amp;J58&amp;"回合，每回合额外获得1费"</f>
+        <v>后续3回合，每回合额外获得1费</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3"/>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3</v>
+      </c>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="1"/>
@@ -2534,12 +2573,12 @@
     <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A59" t="str">
         <f>"后续"&amp;J59&amp;"回合，每回合额外获得1费"</f>
-        <v>后续3回合，每回合额外获得1费</v>
+        <v>后续5回合，每回合额外获得1费</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -2555,7 +2594,7 @@
         <v>11</v>
       </c>
       <c r="J59" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -2563,155 +2602,144 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A60" t="str">
-        <f>"后续"&amp;J60&amp;"回合，每回合额外获得1费"</f>
-        <v>后续5回合，每回合额外获得1费</v>
+        <f>"攻击"&amp;I60</f>
+        <v>攻击8</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H60" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I60" s="3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J60" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
-      <c r="M60" s="1"/>
+      <c r="M60" s="1">
+        <v>61</v>
+      </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A61" t="str">
-        <f>"攻击"&amp;I61</f>
-        <v>攻击8</v>
+        <f>"如果有幻剑，抽"&amp;I61&amp;"张牌"</f>
+        <v>如果有幻剑，抽1张牌</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="G61" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H61" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I61" s="3">
-        <v>8</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
-      <c r="M61" s="1">
-        <v>61</v>
-      </c>
+      <c r="M61" s="1"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A62" t="str">
-        <f>"如果有幻剑，抽"&amp;I62&amp;"张牌"</f>
-        <v>如果有幻剑，抽1张牌</v>
+        <f>"攻击"&amp;I62</f>
+        <v>攻击10</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E62" s="3">
-        <v>17</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>40</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F62" s="3"/>
       <c r="G62" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H62" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I62" s="3">
-        <v>1</v>
-      </c>
-      <c r="J62" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1</v>
+      </c>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
-      <c r="M62" s="1"/>
+      <c r="M62" s="1">
+        <v>63</v>
+      </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A63" t="str">
-        <f>"攻击"&amp;I63</f>
-        <v>攻击10</v>
+        <f>"如果有幻剑，抽"&amp;I63&amp;"张牌"</f>
+        <v>如果有幻剑，抽1张牌</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E63" s="3">
-        <v>0</v>
-      </c>
-      <c r="F63" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="G63" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H63" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I63" s="3">
-        <v>10</v>
-      </c>
-      <c r="J63" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
-      <c r="M63" s="1">
-        <v>63</v>
-      </c>
+      <c r="M63" s="1"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A64" t="str">
-        <f>"如果有幻剑，抽"&amp;I64&amp;"张牌"</f>
-        <v>如果有幻剑，抽1张牌</v>
-      </c>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
+      <c r="A64" t="s">
+        <v>40</v>
+      </c>
       <c r="D64" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E64" s="3">
-        <v>17</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G64" s="3">
         <v>4</v>
       </c>
-      <c r="H64" s="3">
-        <v>4</v>
-      </c>
-      <c r="I64" s="3">
-        <v>1</v>
-      </c>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
+      <c r="H64" s="2">
+        <v>9</v>
+      </c>
       <c r="L64" s="3"/>
       <c r="M64" s="1"/>
     </row>
@@ -2720,13 +2748,13 @@
         <v>41</v>
       </c>
       <c r="D65" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E65" s="3">
         <v>0</v>
       </c>
-      <c r="G65" s="3">
-        <v>4</v>
+      <c r="G65" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="H65" s="2">
         <v>9</v>
@@ -2735,23 +2763,162 @@
       <c r="M65" s="1"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
-        <v>42</v>
+      <c r="A66" t="str">
+        <f>"攻击"&amp;I66</f>
+        <v>攻击4</v>
       </c>
       <c r="D66" s="3">
-        <v>65</v>
-      </c>
-      <c r="E66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3">
+        <v>1</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1</v>
+      </c>
+      <c r="I66" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H66" s="2">
-        <v>9</v>
+      <c r="J66" s="3">
+        <v>1</v>
       </c>
       <c r="L66" s="3"/>
-      <c r="M66" s="1"/>
+      <c r="M66" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A67" t="str">
+        <f>"抽"&amp;I67&amp;"张牌"</f>
+        <v>抽1张牌</v>
+      </c>
+      <c r="D67" s="3">
+        <v>67</v>
+      </c>
+      <c r="E67" s="3">
+        <v>0</v>
+      </c>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3">
+        <v>4</v>
+      </c>
+      <c r="H67" s="3">
+        <v>4</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L67" s="3"/>
+      <c r="M67" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A68" t="str">
+        <f>"如果抽到攻击牌，获得"&amp;I68&amp;"费"</f>
+        <v>如果抽到攻击牌，获得1费</v>
+      </c>
+      <c r="D68" s="3">
+        <v>68</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3">
+        <v>4</v>
+      </c>
+      <c r="H68" s="3">
+        <v>5</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L68" s="3"/>
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A69" t="str">
+        <f>"攻击"&amp;I69</f>
+        <v>攻击7</v>
+      </c>
+      <c r="D69" s="3">
+        <v>69</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3">
+        <v>1</v>
+      </c>
+      <c r="H69" s="3">
+        <v>1</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J69" s="3">
+        <v>1</v>
+      </c>
+      <c r="L69" s="3"/>
+      <c r="M69" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A70" t="str">
+        <f>"抽"&amp;I70&amp;"张牌"</f>
+        <v>抽1张牌</v>
+      </c>
+      <c r="D70" s="3">
+        <v>70</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3">
+        <v>4</v>
+      </c>
+      <c r="H70" s="3">
+        <v>4</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L70" s="3"/>
+      <c r="M70" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A71" t="str">
+        <f>"如果抽到攻击牌，获得"&amp;I71&amp;"费"</f>
+        <v>如果抽到攻击牌，获得1费</v>
+      </c>
+      <c r="D71" s="3">
+        <v>71</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3">
+        <v>4</v>
+      </c>
+      <c r="H71" s="3">
+        <v>5</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L71" s="3"/>
+      <c r="M71" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel/K卡牌效果表.xlsx
+++ b/excel/K卡牌效果表.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
   <si>
     <t>效果ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,6 +258,30 @@
   </si>
   <si>
     <t>71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,8 +454,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:M71" tableType="xml" totalsRowShown="0" connectionId="7">
-  <autoFilter ref="B1:M71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:M72" tableType="xml" totalsRowShown="0" connectionId="7">
+  <autoFilter ref="B1:M72"/>
   <tableColumns count="12">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
       <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nDataExcept" xmlDataType="string"/>
@@ -761,11 +785,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H68" sqref="H68"/>
+      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2542,29 +2566,29 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A58" t="str">
-        <f>"后续"&amp;J58&amp;"回合，每回合额外获得1费"</f>
-        <v>后续3回合，每回合额外获得1费</v>
+        <f>"回合开始时，获得"&amp;J58&amp;"把幻剑"</f>
+        <v>回合开始时，获得2把幻剑</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3">
-        <v>11</v>
-      </c>
-      <c r="J58" s="3">
-        <v>3</v>
+      <c r="H58" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -2573,12 +2597,12 @@
     <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A59" t="str">
         <f>"后续"&amp;J59&amp;"回合，每回合额外获得1费"</f>
-        <v>后续5回合，每回合额外获得1费</v>
+        <v>后续3回合，每回合额外获得1费</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="3">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -2594,7 +2618,7 @@
         <v>11</v>
       </c>
       <c r="J59" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
@@ -2602,159 +2626,170 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A60" t="str">
-        <f>"攻击"&amp;I60</f>
-        <v>攻击8</v>
+        <f>"后续"&amp;J60&amp;"回合，每回合额外获得1费"</f>
+        <v>后续5回合，每回合额外获得1费</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="3">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
       </c>
       <c r="F60" s="3"/>
       <c r="G60" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H60" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I60" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J60" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
-      <c r="M60" s="1">
-        <v>61</v>
-      </c>
+      <c r="M60" s="1"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A61" t="str">
-        <f>"如果有幻剑，抽"&amp;I61&amp;"张牌"</f>
-        <v>如果有幻剑，抽1张牌</v>
+        <f>"攻击"&amp;I61</f>
+        <v>攻击8</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="3">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E61" s="3">
-        <v>17</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F61" s="3"/>
       <c r="G61" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H61" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I61" s="3">
-        <v>1</v>
-      </c>
-      <c r="J61" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1</v>
+      </c>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
-      <c r="M61" s="1"/>
+      <c r="M61" s="1">
+        <v>61</v>
+      </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A62" t="str">
-        <f>"攻击"&amp;I62</f>
-        <v>攻击10</v>
+        <f>"如果有幻剑，抽"&amp;I62&amp;"张牌"</f>
+        <v>如果有幻剑，抽1张牌</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="3">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="G62" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H62" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I62" s="3">
-        <v>10</v>
-      </c>
-      <c r="J62" s="3">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
-      <c r="M62" s="1">
-        <v>63</v>
-      </c>
+      <c r="M62" s="1"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A63" t="str">
-        <f>"如果有幻剑，抽"&amp;I63&amp;"张牌"</f>
-        <v>如果有幻剑，抽1张牌</v>
+        <f>"攻击"&amp;I63</f>
+        <v>攻击10</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="3">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E63" s="3">
-        <v>17</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F63" s="3"/>
       <c r="G63" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H63" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I63" s="3">
-        <v>1</v>
-      </c>
-      <c r="J63" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="J63" s="3">
+        <v>1</v>
+      </c>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
-      <c r="M63" s="1"/>
+      <c r="M63" s="1">
+        <v>63</v>
+      </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>40</v>
-      </c>
+      <c r="A64" t="str">
+        <f>"如果有幻剑，抽"&amp;I64&amp;"张牌"</f>
+        <v>如果有幻剑，抽1张牌</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
       <c r="D64" s="3">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E64" s="3">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="G64" s="3">
         <v>4</v>
       </c>
-      <c r="H64" s="2">
-        <v>9</v>
-      </c>
+      <c r="H64" s="3">
+        <v>4</v>
+      </c>
+      <c r="I64" s="3">
+        <v>1</v>
+      </c>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="1"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D65" s="3">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E65" s="3">
         <v>0</v>
       </c>
-      <c r="G65" s="3" t="s">
-        <v>42</v>
+      <c r="G65" s="3">
+        <v>4</v>
       </c>
       <c r="H65" s="2">
         <v>9</v>
@@ -2763,162 +2798,181 @@
       <c r="M65" s="1"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A66" t="str">
-        <f>"攻击"&amp;I66</f>
-        <v>攻击4</v>
+      <c r="A66" t="s">
+        <v>41</v>
       </c>
       <c r="D66" s="3">
-        <v>66</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3">
-        <v>1</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H66" s="2">
+        <v>9</v>
       </c>
       <c r="L66" s="3"/>
-      <c r="M66" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="M66" s="1"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A67" t="str">
-        <f>"抽"&amp;I67&amp;"张牌"</f>
-        <v>抽1张牌</v>
+        <f>"攻击"&amp;I67</f>
+        <v>攻击4</v>
       </c>
       <c r="D67" s="3">
-        <v>67</v>
-      </c>
-      <c r="E67" s="3">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="F67" s="3"/>
       <c r="G67" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H67" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="J67" s="3">
+        <v>1</v>
       </c>
       <c r="L67" s="3"/>
       <c r="M67" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A68" t="str">
-        <f>"如果抽到攻击牌，获得"&amp;I68&amp;"费"</f>
-        <v>如果抽到攻击牌，获得1费</v>
+        <f>"抽"&amp;I68&amp;"张牌"</f>
+        <v>抽1张牌</v>
       </c>
       <c r="D68" s="3">
-        <v>68</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>49</v>
+        <v>67</v>
+      </c>
+      <c r="E68" s="3">
+        <v>0</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3">
         <v>4</v>
       </c>
       <c r="H68" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L68" s="3"/>
-      <c r="M68" s="1"/>
+      <c r="M68" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69" t="str">
-        <f>"攻击"&amp;I69</f>
-        <v>攻击7</v>
+        <f>"如果抽到攻击牌，获得"&amp;I69&amp;"费"</f>
+        <v>如果抽到攻击牌，获得1费</v>
       </c>
       <c r="D69" s="3">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F69" s="3"/>
       <c r="G69" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H69" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J69" s="3">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="L69" s="3"/>
-      <c r="M69" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="M69" s="1"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A70" t="str">
-        <f>"抽"&amp;I70&amp;"张牌"</f>
-        <v>抽1张牌</v>
+        <f>"攻击"&amp;I70</f>
+        <v>攻击7</v>
       </c>
       <c r="D70" s="3">
-        <v>70</v>
-      </c>
-      <c r="E70" s="3">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="F70" s="3"/>
       <c r="G70" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H70" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="J70" s="3">
+        <v>1</v>
       </c>
       <c r="L70" s="3"/>
       <c r="M70" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A71" t="str">
-        <f>"如果抽到攻击牌，获得"&amp;I71&amp;"费"</f>
-        <v>如果抽到攻击牌，获得1费</v>
+        <f>"抽"&amp;I71&amp;"张牌"</f>
+        <v>抽1张牌</v>
       </c>
       <c r="D71" s="3">
-        <v>71</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>49</v>
+        <v>70</v>
+      </c>
+      <c r="E71" s="3">
+        <v>0</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3">
         <v>4</v>
       </c>
       <c r="H71" s="3">
+        <v>4</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L71" s="3"/>
+      <c r="M71" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A72" t="str">
+        <f>"如果抽到攻击牌，获得"&amp;I72&amp;"费"</f>
+        <v>如果抽到攻击牌，获得1费</v>
+      </c>
+      <c r="D72" s="3">
+        <v>71</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3">
+        <v>4</v>
+      </c>
+      <c r="H72" s="3">
         <v>5</v>
       </c>
-      <c r="I71" s="3" t="s">
+      <c r="I72" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L71" s="3"/>
-      <c r="M71" s="1"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel/K卡牌效果表.xlsx
+++ b/excel/K卡牌效果表.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
   <si>
     <t>效果ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,6 +282,38 @@
   </si>
   <si>
     <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成护甲值相同的伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除自身所有护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果击杀目标，回复与伤害值相同的血量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -336,7 +368,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -356,6 +388,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -454,8 +489,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:M72" tableType="xml" totalsRowShown="0" connectionId="7">
-  <autoFilter ref="B1:M72"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:M78" tableType="xml" totalsRowShown="0" connectionId="7">
+  <autoFilter ref="B1:M78"/>
   <tableColumns count="12">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
       <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nDataExcept" xmlDataType="string"/>
@@ -785,11 +820,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M72"/>
+  <dimension ref="A1:M78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2973,6 +3008,147 @@
       </c>
       <c r="L72" s="3"/>
       <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>59</v>
+      </c>
+      <c r="D73" s="3">
+        <v>72</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0</v>
+      </c>
+      <c r="G73" s="7">
+        <v>1</v>
+      </c>
+      <c r="H73" s="2">
+        <v>10</v>
+      </c>
+      <c r="J73" s="2">
+        <v>1</v>
+      </c>
+      <c r="L73" s="3"/>
+      <c r="M73" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" s="2">
+        <v>73</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0</v>
+      </c>
+      <c r="G74" s="7">
+        <v>4</v>
+      </c>
+      <c r="H74" s="2">
+        <v>11</v>
+      </c>
+      <c r="L74" s="3"/>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A75" t="str">
+        <f>"攻击"&amp;I75</f>
+        <v>攻击7</v>
+      </c>
+      <c r="D75" s="2">
+        <v>74</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3">
+        <v>1</v>
+      </c>
+      <c r="H75" s="3">
+        <v>1</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J75" s="3">
+        <v>1</v>
+      </c>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>66</v>
+      </c>
+      <c r="D76" s="2">
+        <v>75</v>
+      </c>
+      <c r="E76" s="2">
+        <v>3</v>
+      </c>
+      <c r="G76" s="7">
+        <v>1</v>
+      </c>
+      <c r="H76" s="2">
+        <v>12</v>
+      </c>
+      <c r="L76" s="3"/>
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A77" t="str">
+        <f>"攻击"&amp;I77</f>
+        <v>攻击9</v>
+      </c>
+      <c r="D77" s="2">
+        <v>76</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3">
+        <v>1</v>
+      </c>
+      <c r="H77" s="3">
+        <v>1</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J77" s="3">
+        <v>1</v>
+      </c>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>66</v>
+      </c>
+      <c r="D78" s="2">
+        <v>77</v>
+      </c>
+      <c r="E78" s="2">
+        <v>3</v>
+      </c>
+      <c r="G78" s="7">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2">
+        <v>12</v>
+      </c>
+      <c r="L78" s="3"/>
+      <c r="M78" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel/K卡牌效果表.xlsx
+++ b/excel/K卡牌效果表.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
   <si>
     <t>效果ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,6 +314,22 @@
   </si>
   <si>
     <t>如果击杀目标，回复与伤害值相同的血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,8 +505,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:M78" tableType="xml" totalsRowShown="0" connectionId="7">
-  <autoFilter ref="B1:M78"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:M84" tableType="xml" totalsRowShown="0" connectionId="7">
+  <autoFilter ref="B1:M84"/>
   <tableColumns count="12">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
       <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nDataExcept" xmlDataType="string"/>
@@ -820,11 +836,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G78" sqref="G78"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3149,6 +3165,178 @@
       </c>
       <c r="L78" s="3"/>
       <c r="M78" s="1"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A79" t="str">
+        <f>"攻击"&amp;I79</f>
+        <v>攻击7</v>
+      </c>
+      <c r="D79" s="2">
+        <v>78</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3">
+        <v>1</v>
+      </c>
+      <c r="H79" s="3">
+        <v>1</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J79" s="3">
+        <v>1</v>
+      </c>
+      <c r="L79" s="3"/>
+      <c r="M79" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A80" t="str">
+        <f>"如果有幻剑，攻击"&amp;I80&amp;"*"&amp;J80</f>
+        <v>如果有幻剑，攻击1*2</v>
+      </c>
+      <c r="D80" s="2">
+        <v>79</v>
+      </c>
+      <c r="E80" s="3">
+        <v>17</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G80" s="7">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2">
+        <v>1</v>
+      </c>
+      <c r="I80" s="2">
+        <v>1</v>
+      </c>
+      <c r="J80" s="2">
+        <v>2</v>
+      </c>
+      <c r="L80" s="3"/>
+      <c r="M80" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A81" t="str">
+        <f>"消耗"&amp;J81&amp;"把幻剑"</f>
+        <v>消耗1把幻剑</v>
+      </c>
+      <c r="D81" s="2">
+        <v>80</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="7">
+        <v>4</v>
+      </c>
+      <c r="H81" s="2">
+        <v>13</v>
+      </c>
+      <c r="I81" s="2">
+        <v>6</v>
+      </c>
+      <c r="J81" s="2">
+        <v>1</v>
+      </c>
+      <c r="L81" s="3"/>
+      <c r="M81" s="1"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A82" t="str">
+        <f>"攻击"&amp;I82</f>
+        <v>攻击9</v>
+      </c>
+      <c r="D82" s="2">
+        <v>81</v>
+      </c>
+      <c r="E82" s="3">
+        <v>0</v>
+      </c>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3">
+        <v>1</v>
+      </c>
+      <c r="H82" s="3">
+        <v>1</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J82" s="3">
+        <v>1</v>
+      </c>
+      <c r="L82" s="3"/>
+      <c r="M82" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A83" t="str">
+        <f>"如果有幻剑，攻击"&amp;I83&amp;"*"&amp;J83</f>
+        <v>如果有幻剑，攻击2*2</v>
+      </c>
+      <c r="D83" s="2">
+        <v>82</v>
+      </c>
+      <c r="E83" s="3">
+        <v>17</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G83" s="7">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2">
+        <v>1</v>
+      </c>
+      <c r="I83" s="2">
+        <v>2</v>
+      </c>
+      <c r="J83" s="2">
+        <v>2</v>
+      </c>
+      <c r="L83" s="3"/>
+      <c r="M83" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A84" t="str">
+        <f>"消耗"&amp;J84&amp;"把幻剑"</f>
+        <v>消耗1把幻剑</v>
+      </c>
+      <c r="D84" s="2">
+        <v>83</v>
+      </c>
+      <c r="E84" s="3">
+        <v>0</v>
+      </c>
+      <c r="G84" s="7">
+        <v>4</v>
+      </c>
+      <c r="H84" s="2">
+        <v>13</v>
+      </c>
+      <c r="I84" s="2">
+        <v>6</v>
+      </c>
+      <c r="J84" s="2">
+        <v>1</v>
+      </c>
+      <c r="L84" s="3"/>
+      <c r="M84" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel/K卡牌效果表.xlsx
+++ b/excel/K卡牌效果表.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
   <si>
     <t>效果ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,6 +330,10 @@
   </si>
   <si>
     <t>83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除所有负面状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,8 +509,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:M84" tableType="xml" totalsRowShown="0" connectionId="7">
-  <autoFilter ref="B1:M84"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="B1:M87" tableType="xml" totalsRowShown="0" connectionId="7">
+  <autoFilter ref="B1:M87"/>
   <tableColumns count="12">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
       <xmlColumnPr mapId="7" xpath="/LocalDatas/LocalData/g_CardEffectTemplate/entry/nDataExcept" xmlDataType="string"/>
@@ -836,11 +840,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G79" sqref="G79"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3337,6 +3341,82 @@
       </c>
       <c r="L84" s="3"/>
       <c r="M84" s="1"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A85" t="str">
+        <f>"获得"&amp;J85&amp;"把幻剑"</f>
+        <v>获得2把幻剑</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="2">
+        <v>84</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0</v>
+      </c>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3">
+        <v>4</v>
+      </c>
+      <c r="H85" s="3">
+        <v>3</v>
+      </c>
+      <c r="I85" s="3">
+        <v>6</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A86" t="str">
+        <f>"获得"&amp;J86&amp;"把幻剑"</f>
+        <v>获得3把幻剑</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="2">
+        <v>85</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0</v>
+      </c>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3">
+        <v>4</v>
+      </c>
+      <c r="H86" s="3">
+        <v>3</v>
+      </c>
+      <c r="I86" s="3">
+        <v>6</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>71</v>
+      </c>
+      <c r="D87" s="2">
+        <v>86</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0</v>
+      </c>
+      <c r="G87" s="7">
+        <v>4</v>
+      </c>
+      <c r="H87" s="2">
+        <v>14</v>
+      </c>
+      <c r="L87" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
